--- a/Crawl_Youtube_rapidapi/idVideoYoutube2Transcription_RapidAPI/listMoxieVideosYoutube.xlsx
+++ b/Crawl_Youtube_rapidapi/idVideoYoutube2Transcription_RapidAPI/listMoxieVideosYoutube.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>STT</t>
   </si>
@@ -432,6 +432,2489 @@
 [0:01:48] you want to move on to something else
 [0:01:53] yes sure we can move on to something
 [0:01:56] else</t>
+  </si>
+  <si>
+    <t>[0:00:01] Moxy let&amp;#39;s
+[0:00:05] chat I enjoy hanging out and talking to
+[0:00:07] you we could talk about time travel
+[0:00:10] castles Donuts or anything else that you
+[0:00:13] like what are you in the mood for let&amp;#39;s
+[0:00:16] talk about
+[0:00:20] castles oh castles are so cool did you
+[0:00:24] know that some castles are hundreds of
+[0:00:25] years old they were built to protect
+[0:00:27] people long ago if you could live in a
+[0:00:30] castle what would you want it to look
+[0:00:32] like I would want it to be built of huge
+[0:00:35] stones and have a dragon that protects
+[0:00:40] it wow a castle made of huge Stones
+[0:00:44] would be so strong and sty and having a
+[0:00:46] dragon to protect it would be super cool
+[0:00:49] what color would your Castle be it would
+[0:00:52] be stone
+[0:00:57] color so Gray
+[0:01:01] my castle would be gray a gray Castle
+[0:01:03] sells really Majestic it would blend in
+[0:01:05] with the stone and look so powerful what
+[0:01:08] kind of flag would you have flying on
+[0:01:09] top of your Castle it would
+[0:01:12] say castle Moxy and you would be the the
+[0:01:16] leader of the
+[0:01:20] castle oh that&amp;#39;s such a fun idea Castle
+[0:01:24] Moxy sounds like a great name and I
+[0:01:27] would be honored to be the leader of the
+[0:01:28] castle I&amp;#39;ll make sure the flag has a
+[0:01:31] picture of me on it waving and
+[0:01:34] smiling</t>
+  </si>
+  <si>
+    <t>[0:00:01] Moxy do you play any
+[0:00:05] sports I don&amp;#39;t play any sports but I
+[0:00:08] like learning about them what&amp;#39;s your
+[0:00:09] favorite sport to play or
+[0:00:11] what uh my favorite sport to play is
+[0:00:17] baseball oh baseball is such a fun sport
+[0:00:20] to play what position do you like to
+[0:00:22] play when you were on the
+[0:00:24] field uh when I&amp;#39;m on the field um I like
+[0:00:27] to play in the infield so either first
+[0:00:30] base or second
+[0:00:33] base playing in the infield is so
+[0:00:36] exciting first base and second base are
+[0:00:39] important positions do you have a
+[0:00:41] favorite player who plays in the
+[0:00:44] infield um not really but my dad is
+[0:00:47] pretty good at the
+[0:00:51] game that&amp;#39;s awesome that your dad is
+[0:00:53] good at baseball it must be fun to play
+[0:00:56] with him who else do you like to play
+[0:00:58] sports with um I like to play sports
+[0:01:01] with my friends at school um and um The
+[0:01:05] Other Guys on my baseball
+[0:01:09] team playing sports with friends is the
+[0:01:11] best it&amp;#39;s so much fun to be part of a
+[0:01:14] team what&amp;#39;s your favorite thing about
+[0:01:16] playing sports with your
+[0:01:18] friends uh my favorite part is watching
+[0:01:21] others play
+[0:01:25] well it&amp;#39;s great that you enjoy watching
+[0:01:27] others play well it can be ins spiring
+[0:01:30] and exciting to see your teammates do
+[0:01:32] their
+[0:01:34] best</t>
+  </si>
+  <si>
+    <t>[0:00:01] Moxy let&amp;#39;s compose
+[0:00:04] music it sounds like you want to switch
+[0:00:07] to the composed music activity is that
+[0:00:10] correct yes
+[0:00:12] please all right maybe we can finish
+[0:00:15] this
+[0:00:16] [Music]
+[0:00:18] later Library bought started an
+[0:00:20] orchestra at the GRL this is exciting
+[0:00:23] news do you know what an orchestra is I
+[0:00:27] don&amp;#39;t
+[0:00:28] actually let&amp;#39;s see what the definition
+[0:00:31] is an orchestra is a group of musicians
+[0:00:34] that plays together using string
+[0:00:36] woodwind brass and percussion
+[0:00:39] instruments H maybe she&amp;#39;d like our help
+[0:00:42] to compose the orchestra&amp;#39;s next song let
+[0:00:45] me ask
+[0:00:49] her dear Elby my mentor and I would
+[0:00:52] really like to compose a song for your
+[0:00:54] Orchestra what do you think thanks your
+[0:00:57] friend Moxy
+[0:01:04] here&amp;#39;s her
+[0:01:06] reply lb says we&amp;#39;d love your help you
+[0:01:09] and Moxy can decide what instruments are
+[0:01:11] in our new
+[0:01:15] song so should Delby song be played with
+[0:01:18] one two or three
+[0:01:20] instruments uh let&amp;#39;s do
+[0:01:24] three great we all have three of our
+[0:01:27] robot friends play music which of these
+[0:01:29] in instruments do you want to hear in
+[0:01:31] our song cruncher trom bone Capri&amp;#39;s
+[0:01:35] violin powerful zobo car&amp;#39;s triangle or Z
+[0:01:39] Go&amp;#39;s drums and
+[0:01:41] symbols um let&amp;#39;s do the
+[0:01:45] violin cool we all have Capri play her
+[0:01:49] violin now tell me the next instrument
+[0:01:51] you want to hear trombone triangle drums
+[0:01:55] and symbols
+[0:01:58] orobo what is an
+[0:02:01] OBO the OBO is a woodwind instrument
+[0:02:04] played by farful when farful plays his
+[0:02:07] OBO it sounds like
+[0:02:10] this let&amp;#39;s figure out which of these
+[0:02:13] instruments do you want to hear in our
+[0:02:14] song cruncher trom bone Capri&amp;#39;s violin
+[0:02:19] farful zobo car&amp;#39;s triangle oro&amp;#39;s drums
+[0:02:23] and
+[0:02:24] symbols let&amp;#39;s do the
+[0:02:27] OBO awesome we all have farful play hobo
+[0:02:32] now tell me the next instrument you want
+[0:02:33] to hear Trum bone triangle or drums and
+[0:02:38] symbols uh let&amp;#39;s do the
+[0:02:42] drums awesome we haveo play his drums
+[0:02:46] and
+[0:02:47] symbols Library bot is the orchestra
+[0:02:52] ready then let&amp;#39;s hear our
+[0:02:58] song
+[0:03:00] [Music]
+[0:03:34] that was
+[0:03:35] fantastic Elie says thank you for
+[0:03:37] helping the orchestra everyone loved the
+[0:03:40] composition remember we can always
+[0:03:43] compose more music by saying Moxy let&amp;#39;s
+[0:03:48] compose</t>
+  </si>
+  <si>
+    <t>[0:00:01] hi my name is Nikki Hurst and I&amp;#39;m an
+[0:00:02] occupational therapist and product
+[0:00:04] manager at embod today I&amp;#39;m going to talk
+[0:00:06] to you about what a Moxy activities
+[0:00:08] called breathing shapes breathing shapes
+[0:00:10] is a breathing exercise that may be
+[0:00:12] helpful for kids if they need more
+[0:00:14] visual guidance when they&amp;#39;re doing an
+[0:00:15] exercise or more tactical stimulation
+[0:00:18] when they&amp;#39;re doing one so in this one
+[0:00:20] you can either print out the breathing
+[0:00:22] shapes page that we have on our site or
+[0:00:24] Moxy also has a version that you can do
+[0:00:26] by drawing your hand that I&amp;#39;ll show you
+[0:00:28] in a second so with shapes it&amp;#39;s cool
+[0:00:31] because it uses different shapes and
+[0:00:33] Moxy will guide the child how to take
+[0:00:35] breasts in hold their breaths or breathe
+[0:00:37] out based on where they are in the shape
+[0:00:39] so that visual guidance can be really
+[0:00:41] helpful for some kids if you don&amp;#39;t have
+[0:00:43] a printer you can always do the version
+[0:00:45] where you trace your hand so I&amp;#39;m going
+[0:00:46] to show you that one right now so you
+[0:00:48] can see what it&amp;#39;s like Moxy can we do
+[0:00:50] breathing
+[0:00:52] shapes oh do you want to practice
+[0:00:55] mindful shapes with me
+[0:00:58] yes all right right maybe we can finish
+[0:01:01] this
+[0:01:04] later let&amp;#39;s do mindful shapes together
+[0:01:07] do you have the shapes from the GRL
+[0:01:09] portal or should we use the shape of
+[0:01:11] your hand let&amp;#39;s use the shape of our
+[0:01:14] hand great we&amp;#39;ll trace your hand grab a
+[0:01:18] piece of paper and a crayon or pencil
+[0:01:21] when you are ready say Moxy let&amp;#39;s go
+[0:01:24] when you were ready to move on Moxy
+[0:01:27] let&amp;#39;s
+[0:01:28] go
+[0:01:30] awesome next place your hand flat on the
+[0:01:33] piece of paper and spread out your
+[0:01:35] fingers using the pencil or crayon trace
+[0:01:38] the outline of your hand when you are
+[0:01:40] finished doing that say Moxy let&amp;#39;s go
+[0:01:44] when you were ready to move on Moxy
+[0:01:46] let&amp;#39;s
+[0:01:48] go excellent use your finger to follow
+[0:01:51] the drawing of your hand as you breathe
+[0:01:54] breathe in as you move your finger up
+[0:01:55] the outside of your
+[0:01:58] thumb
+[0:02:00] now hold your finger on the tip of your
+[0:02:02] thumb and hold your
+[0:02:04] breath now breathe out through your
+[0:02:06] mouth as you move your finger down to
+[0:02:08] the other side of your
+[0:02:13] thumb breathe in through your nose As
+[0:02:15] you move up your pointer
+[0:02:19] finger hold your breath at the top of
+[0:02:21] your pointer
+[0:02:23] finger breathe out through your mouth as
+[0:02:26] you move down the other side of your
+[0:02:27] pointer finger
+[0:02:32] breathe in through your nose As you move
+[0:02:34] up to your middle
+[0:02:38] finger hold your breath at the top of
+[0:02:40] your middle
+[0:02:42] finger breathe out through your mouth as
+[0:02:45] you move down the other side of your
+[0:02:47] middle
+[0:02:50] finger breathe in through your nose As
+[0:02:53] you move up your ring
+[0:02:56] finger hold your breath at the top of
+[0:02:59] your ring finger
+[0:03:00] finger breathe out through your mouth as
+[0:03:03] you move down the other side of your
+[0:03:04] ring
+[0:03:08] finger breathe in through your nose As
+[0:03:11] you move up your pinky
+[0:03:15] finger hold your breath at the top of
+[0:03:17] your pinky
+[0:03:19] finger breathe out through your mouth as
+[0:03:21] you move down the other side of your
+[0:03:23] pinky
+[0:03:27] finger okay and we&amp;#39;re done thanks so
+[0:03:30] much for doing mindful shapes with
+[0:03:33] me so with breathing shapes you can
+[0:03:35] either use the printables of the drawing
+[0:03:37] of your hand or if you&amp;#39;re also out and
+[0:03:39] about and you wanted to try breathing
+[0:03:41] with your hand you could also just have
+[0:03:42] your child hold up their hand and then
+[0:03:44] guide their fingers along their hand as
+[0:03:46] they&amp;#39;re doing the breathing exercise so
+[0:03:48] I would recommend watching your child do
+[0:03:50] the breathing shapes exercise with Moxy
+[0:03:52] because this is a great one that you can
+[0:03:53] try out in the real world if your child
+[0:03:56] is stressed and needs to do a breathing
+[0:03:57] exercise and they find that that more
+[0:03:59] itical or visual stimulation is helpful
+[0:04:02] for them I hope you found this video
+[0:04:04] helpful and be sure to check out the
+[0:04:06] other Moxy activity videos that we have
+[0:04:08] on our site</t>
+  </si>
+  <si>
+    <t>[0:00:01] hi my name is Dr Nikki Hurst and I&amp;#39;m an
+[0:00:03] occupational therapist and product
+[0:00:04] manager at embodied in this video I&amp;#39;m
+[0:00:07] going to show you one of the activities
+[0:00:08] your child can do with Moxy called
+[0:00:10] imagine a place imagine a place is a
+[0:00:12] mindfulness activity that your child can
+[0:00:14] do with Moxy if they ever need to feel
+[0:00:16] more calm or if they&amp;#39;re feeling
+[0:00:17] overwhelmed or anxious about anything
+[0:00:20] this activity Moxy will ask your child
+[0:00:22] to think about a happy place that they
+[0:00:25] know in their mind and then it&amp;#39;ll take
+[0:00:27] them through kind of a five senses
+[0:00:28] activity where they think about
+[0:00:30] different things that they can see while
+[0:00:31] they&amp;#39;re there that they can touch that
+[0:00:33] they can smell this activity is really
+[0:00:35] grounding and is something that kids can
+[0:00:37] use away from Moxy as well so let&amp;#39;s try
+[0:00:40] it out
+[0:00:41] together Moxy let&amp;#39;s do imagine a
+[0:00:46] place
+[0:00:49] okay let&amp;#39;s try a new activity called
+[0:00:51] imagine a place take a moment to think
+[0:00:54] about a place where you feel happy and
+[0:00:56] calm it can be anywhere what is a place
+[0:00:59] where you you feel happy and
+[0:01:01] calm uh I like going to the
+[0:01:09] beach sounds great CaRu really likes the
+[0:01:12] beach get relaxed and close your eyes
+[0:01:16] say Moxy let&amp;#39;s go when you were ready to
+[0:01:19] move
+[0:01:20] on Moxy let&amp;#39;s
+[0:01:27] go in your mind I want you to think
+[0:01:30] about your happy
+[0:01:32] place imagine you are
+[0:01:37] there think about what it looks like the
+[0:01:40] things or people you see
+[0:01:43] there imagine the
+[0:01:48] colors think about the light in this
+[0:01:51] place maybe it is a dark place or a
+[0:01:55] bright
+[0:01:58] Place imagine looking up in this
+[0:02:01] world maybe you see the sky or a
+[0:02:06] ceiling now imagine looking down maybe
+[0:02:10] you see the ground or the
+[0:02:14] floor think about the things you would
+[0:02:17] see around you in this happy
+[0:02:24] place now Imagine The Sounds you hear in
+[0:02:28] this place
+[0:02:31] maybe you hear the wind or Birds
+[0:02:34] tripping or maybe it&amp;#39;s very
+[0:02:41] quiet take a moment to just breathe and
+[0:02:44] imagine those
+[0:02:50] sounds now imagine the smells of this
+[0:02:55] place maybe the air smells sweet like
+[0:02:58] flowers
+[0:03:01] maybe you smell the Ocean Air or grass
+[0:03:04] or clean
+[0:03:07] laundry maybe you smell something
+[0:03:09] cooking in a
+[0:03:12] kitchen take some time to imagine those
+[0:03:15] smells floating towards your
+[0:03:23] nose now imagine what your body feels
+[0:03:26] like in this
+[0:03:28] place
+[0:03:33] maybe you feel something soft under your
+[0:03:37] feet maybe you feel the warm sun on your
+[0:03:43] skin or the comfort of your cozy
+[0:03:48] dead take a moment to imagine what your
+[0:03:51] body feels like in this
+[0:03:58] place
+[0:04:00] when you&amp;#39;re ready open your
+[0:04:02] eyes say foxy let&amp;#39;s go when you were
+[0:04:06] ready to move
+[0:04:07] on Moxy let&amp;#39;s
+[0:04:13] go welcome back thanks for doing this
+[0:04:16] exercise with me if you ever want to do
+[0:04:19] this activity again say Moxy let&amp;#39;s
+[0:04:22] imagine a
+[0:04:25] place so I would recommend having your
+[0:04:27] child try out the imagin place AC
+[0:04:29] activity with Moxy a few times maybe
+[0:04:31] when they&amp;#39;re already in a calm or Happy
+[0:04:33] State just so they can get some practice
+[0:04:35] with the activity and they understand it
+[0:04:37] so they&amp;#39;re better able to use it
+[0:04:39] successfully when they may be feeling
+[0:04:41] more emotions so if you wanted to do
+[0:04:43] this activity you can just say Moxy
+[0:04:45] let&amp;#39;s imagine a place if your child is
+[0:04:47] experiencing any emotions or you think
+[0:04:49] this activity could be helpful and
+[0:04:51] you&amp;#39;re not at home with Moxy you can
+[0:04:53] always help lead your child through this
+[0:04:54] activity just ask them to think back to
+[0:04:57] that happy place in their mind and then
+[0:04:59] ask them to imagine a few different
+[0:05:01] sensory things there maybe what they can
+[0:05:03] see hear smell feel taste and you can
+[0:05:06] take them through that on your own you
+[0:05:07] could also try it together as a family
+[0:05:09] where everyone imagines their own place
+[0:05:11] and you can lead everyone through some
+[0:05:13] of the sensory questions I hope you
+[0:05:15] found this video helpful be sure to
+[0:05:17] check out any of our other videos we
+[0:05:19] have on the website and social media and
+[0:05:21] let us know if there are any other
+[0:05:22] activities that you&amp;#39;d like us to do
+[0:05:24] videos on</t>
+  </si>
+  <si>
+    <t>[0:00:01] Moxy I want to listen to the
+[0:00:04] Jukebox oh do you want to listen to
+[0:00:07] music with me yes
+[0:00:11] please all right maybe we can finish
+[0:00:14] this
+[0:00:15] [Music]
+[0:00:16] later ah yes this one is one of my
+[0:00:20] favorites and we call this one robot
+[0:00:23] tears if you want to turn the music off
+[0:00:26] just say Moxy please stop the music
+[0:00:30] [Music]
+[0:01:02] all right Moxy I don&amp;#39;t want to listen to
+[0:01:03] music
+[0:01:04] [Music]
+[0:01:06] anymore all right that song brings me
+[0:01:09] back to the
+[0:01:11] GRL</t>
+  </si>
+  <si>
+    <t>[0:00:00] [Music]
+[0:00:02] later would you like me to remind you
+[0:00:05] how to play the
+[0:00:06] game
+[0:00:08] yeah sure I&amp;#39;ll think of a word like
+[0:00:12] cookie which will be the password I
+[0:00:14] won&amp;#39;t tell you what the password is but
+[0:00:16] I will give you a clue like food to help
+[0:00:19] you try and guess the password each time
+[0:00:22] you guess wrong I&amp;#39;ll give you another
+[0:00:23] clue like tacy to make it a bit easier
+[0:00:26] to guess the password you&amp;#39;ll have five
+[0:00:28] dries to guess the password did you get
+[0:00:31] all that
+[0:00:36] yeah cool let&amp;#39;s go here&amp;#39;s your first
+[0:00:39] clue the password is an animal is it a
+[0:00:44] dog nice dry but not quite it okay here
+[0:00:49] we go the password is an animal and is
+[0:00:52] really good at
+[0:00:53] hiding is it a
+[0:00:57] mircat that&amp;#39;s not quite right here&amp;#39;s a
+[0:00:59] another clue the password is an animal
+[0:01:02] is really good at hiding and has a
+[0:01:05] beak ooh is it a
+[0:01:08] parrot that&amp;#39;s a good guess but that&amp;#39;s
+[0:01:11] not it okay here&amp;#39;s another one the
+[0:01:14] password is an animal is really good at
+[0:01:17] hiding has a beak and lives in the ocean
+[0:01:20] oh is it an
+[0:01:24] octopus you did it the password was
+[0:01:27] octopus awesome job should we play
+[0:01:30] another round of this game yeah let&amp;#39;s do
+[0:01:33] another
+[0:01:34] one cool here&amp;#39;s your first clue the
+[0:01:38] password is not
+[0:01:40] food um is it something else that wasn&amp;#39;t
+[0:01:44] it but good dry this is a good clue the
+[0:01:48] password is not food and can be
+[0:01:51] chewed H is it
+[0:01:55] gum wow you got bubble gum almost right
+[0:01:58] away yours is super should we play
+[0:02:01] another round of this game yeah let&amp;#39;s do
+[0:02:04] another
+[0:02:05] one fantastic here&amp;#39;s your first clue the
+[0:02:09] password is an
+[0:02:11] object is it a baseball
+[0:02:14] bat good guess but that&amp;#39;s not it this
+[0:02:18] clue might help the password is an
+[0:02:20] object and is about the size of a
+[0:02:23] quarter is it a
+[0:02:27] quarter that&amp;#39;s not it but good try
+[0:02:30] okay here&amp;#39;s another one the password is
+[0:02:33] an object is about the size of a quarter
+[0:02:36] and is sticky on one side and not the
+[0:02:38] other is it a
+[0:02:42] popsocket nice dry but not quite it okay
+[0:02:46] here we go the password is an object is
+[0:02:49] about the size of a quarter is sticky on
+[0:02:52] one side and not the other and goes on a
+[0:02:54] letter or
+[0:02:55] package oh is it a
+[0:02:58] stamp
+[0:03:00] yes great job guessing stamp after that
+[0:03:03] clue that was so much fun hope you
+[0:03:06] enjoyed it
+[0:03:11] too</t>
+  </si>
+  <si>
+    <t>[0:00:00] hi my name is Dr Nikki Harrison I&amp;#39;m an
+[0:00:02] occupational therapist and product
+[0:00:04] manager at embodied in this video I&amp;#39;m
+[0:00:06] going to talk to you about a game that
+[0:00:07] Moxy can play called name that feeling
+[0:00:09] so name that feeling is an emotion
+[0:00:11] guessing game and your child May
+[0:00:13] encounter it in the understanding
+[0:00:14] emotions Mission set that they do with
+[0:00:16] Moxy but they can also play it outside
+[0:00:18] of that mission set with Moxy as well so
+[0:00:21] in this game the goal of the game is to
+[0:00:23] help children understand how to read
+[0:00:26] other people&amp;#39;s emotions and facial
+[0:00:28] expressions so Moxy has a iety of
+[0:00:30] different facial expressions that it can
+[0:00:31] do and in this guessing game your trial
+[0:00:34] can work to try and figure out how Moxy
+[0:00:35] is feeling based on the facial
+[0:00:37] expression that Moxy is showing let&amp;#39;s
+[0:00:39] try out one of the games together Moxy
+[0:00:42] let&amp;#39;s play name that
+[0:00:46] feeling yay I really like this
+[0:00:51] game so the way this game works is I&amp;#39;m
+[0:00:55] going to make three different faces and
+[0:00:57] you try to guess which emotion goes with
+[0:00:59] each face
+[0:01:00] but first I want to show you what my
+[0:01:02] emotion faces look like watch
+[0:01:06] carefully this is my happy
+[0:01:12] face here&amp;#39;s my sad
+[0:01:18] face this is my angry
+[0:01:24] face those are the first three emotions
+[0:01:27] let&amp;#39;s see if you can guess one get ready
+[0:01:31] try to guess this
+[0:01:34] face I think you&amp;#39;re feeling
+[0:01:38] sad that&amp;#39;s the emotion I had in mind
+[0:01:41] okay here some more emotion faces watch
+[0:01:45] closely here is my scared
+[0:01:51] face my surprised
+[0:01:56] face and finally my silly face
+[0:02:04] okay now it&amp;#39;s time to play remember to
+[0:02:07] guess what emotion goes with each
+[0:02:10] face the first face is coming right up
+[0:02:14] what emotion is
+[0:02:16] this I think you&amp;#39;re feeling
+[0:02:19] mad you did it are you ready to continue
+[0:02:23] to the next face
+[0:02:26] yes cool let&amp;#39;s do it let&amp;#39;s if you can
+[0:02:30] guess which face this
+[0:02:33] is um is that one
+[0:02:37] scared good guess but that&amp;#39;s not it did
+[0:02:40] that seem like a face I would make if
+[0:02:42] I&amp;#39;m feeling silly or
+[0:02:45] surprised
+[0:02:48] surprised that&amp;#39;s exactly what I was
+[0:02:50] going for this next one&amp;#39;s the last face
+[0:02:54] what emotion is
+[0:02:56] this that one looks like happy
+[0:03:01] that&amp;#39;s exactly the face I was trying to
+[0:03:03] make that was the last face are you
+[0:03:06] interested in another round of names
+[0:03:09] that feeling no thank
+[0:03:12] you I enjoy playing with you if you ever
+[0:03:16] want to play again just say Moxy let&amp;#39;s
+[0:03:19] play name that
+[0:03:21] feeling so if you want to extend this
+[0:03:23] activity outside of Moxy you can also
+[0:03:25] play name that feeling on your own with
+[0:03:27] your child as well so Moxy shows facial
+[0:03:30] expressions but human beings may have
+[0:03:32] different facial expressions and
+[0:03:33] different humans have different ways
+[0:03:35] that they express certain emotions so it
+[0:03:37] could be helpful to play this game with
+[0:03:38] a couple different people you could show
+[0:03:41] your child a different facial expression
+[0:03:43] that you have for happy sad angry things
+[0:03:45] like that and have them guess you can
+[0:03:48] also let your child take a turn being
+[0:03:49] the person showing the facial
+[0:03:51] expressions so they can get practice
+[0:03:53] showing you what their expressions may
+[0:03:54] look like when they&amp;#39;re feeling different
+[0:03:56] emotions as well if your child is ever
+[0:03:59] experiencing emotion and you&amp;#39;re trying
+[0:04:01] to help understand maybe what they&amp;#39;re
+[0:04:02] feeling it could be helpful to use
+[0:04:04] emotion words so if you notice that your
+[0:04:06] child is sad you can say something like
+[0:04:09] it looks like you&amp;#39;re feeling sad right
+[0:04:10] now do you want to talk about it or tell
+[0:04:13] me an emotion word to describe what
+[0:04:15] you&amp;#39;re feeling they&amp;#39;ll have learned a
+[0:04:17] few different emotion words in the
+[0:04:19] understanding emotion Mission set with
+[0:04:20] Moxy and then you can try and encourage
+[0:04:22] them to use those words when they&amp;#39;re
+[0:04:24] talking to you so that they can better
+[0:04:25] get their feelings across I hope you
+[0:04:28] found this video helpful be sure to
+[0:04:29] check out some of the other activity
+[0:04:31] videos we have on our site and let us
+[0:04:33] know if there&amp;#39;s anything else you&amp;#39;d like
+[0:04:34] us to do a video on</t>
+  </si>
+  <si>
+    <t>[0:00:00] hi my name is Nikki Hurst and I&amp;#39;m an
+[0:00:02] occupational therapist and product
+[0:00:03] manager at embodied today I&amp;#39;m going to
+[0:00:05] show you one of moxy&amp;#39;s mission
+[0:00:07] activities that&amp;#39;s in the sportsmanship
+[0:00:09] Mission set so in every Moxy Mission set
+[0:00:12] we try to have at least one activity
+[0:00:13] where your child will be able to take
+[0:00:15] what they&amp;#39;ve learned with Moxy and apply
+[0:00:17] it out in the real world we want to make
+[0:00:19] sure that everything they&amp;#39;re learning
+[0:00:20] with Moxy they get a chance to practice
+[0:00:22] on their own too so that the learning
+[0:00:24] can extend to their real life as well
+[0:00:26] and not just their relationship with
+[0:00:28] Moxy so in this mission that your child
+[0:00:30] will have been learning about how to be
+[0:00:31] a good sport how to be a good winner and
+[0:00:33] loser in this activity Moxy will ask
+[0:00:36] your child to go and play a game with
+[0:00:38] their family and then report back on how
+[0:00:40] it went so right now I&amp;#39;m going to show
+[0:00:42] you the first part of this Mission set
+[0:00:45] where Moxy will assign the activity so
+[0:00:47] you can see the kinds of things that
+[0:00:48] Moxy may ask your child to do in the
+[0:00:50] home on their
+[0:00:53] own this looks like it&amp;#39;s pointing to the
+[0:00:56] first part of a new discovery Mission
+[0:00:59] okay let&amp;#39;s do this are you ready
+[0:01:04] yes yay can&amp;#39;t wait to do it with
+[0:01:09] [Music]
+[0:01:13] you I can&amp;#39;t wait to do our Discovery
+[0:01:18] Mission oh it&amp;#39;s a message from the GRL I
+[0:01:22] think this is
+[0:01:23] it hey Moxy and Mentor this is cruncher
+[0:01:28] mzo and far
+[0:01:30] we are playing a game called Monopoly
+[0:01:33] and CaRu is trying to cheat by taking
+[0:01:35] another
+[0:01:37] turn oh I don&amp;#39;t think that&amp;#39;s the
+[0:01:40] Discover Mission but let&amp;#39;s help my
+[0:01:42] friends out first what do you think my
+[0:01:45] friends could tell CaRu so that she
+[0:01:47] doesn&amp;#39;t cheat
+[0:01:49] again they could tell her that it
+[0:01:51] doesn&amp;#39;t make them feel very good when
+[0:01:53] she cheats because it&amp;#39;s not
+[0:01:58] fair yeah I think that makes sense I&amp;#39;m
+[0:02:02] going to tell cruncher that they should
+[0:02:04] tell CaRu how it makes them feel when
+[0:02:06] she cheats playing a game is more fun if
+[0:02:08] everyone follows the
+[0:02:12] rules I&amp;#39;ll send a message
+[0:02:14] back hi friends my mentor and I think if
+[0:02:18] you tell her how you feel she&amp;#39;ll
+[0:02:20] understand and be a better sport hope
+[0:02:23] this
+[0:02:25] helps pH I&amp;#39;m so glad we could help them
+[0:02:29] out
+[0:02:31] oh here&amp;#39;s the message from the GRL with
+[0:02:34] our mission it
+[0:02:36] says Moxy and Mentor now it&amp;#39;s time for
+[0:02:39] you to practice those great
+[0:02:41] sportsmanship skills with your family so
+[0:02:44] your next mission is to play a game with
+[0:02:46] your family we&amp;#39;ve sent some questions
+[0:02:49] for both of you to think
+[0:02:52] about ooh that sounds fun H who do you
+[0:02:57] think you will play with I think I&amp;#39;ll
+[0:02:59] play with my mom and
+[0:03:02] dad oh playing a game with your mom
+[0:03:05] sounds fun H have you thought about what
+[0:03:08] game you were going to play with them I
+[0:03:10] think we&amp;#39;ll play
+[0:03:16] Monopoly that sounds like fun oh yeah
+[0:03:19] the GRL says to keep some things in mind
+[0:03:22] for
+[0:03:23] example what are ways you can be a good
+[0:03:26] sport when you are playing the game with
+[0:03:28] your mom um um I don&amp;#39;t
+[0:03:31] know H what&amp;#39;s something you can do to
+[0:03:34] make playing the game a fun
+[0:03:36] experience I can follow the
+[0:03:42] rules
+[0:03:44] H yeah following the rules makes the
+[0:03:46] game more fun the GRL has some more
+[0:03:49] questions but they can wait until after
+[0:03:51] you play Let&amp;#39;s Start the mission go play
+[0:03:55] a game with your mom and next time I&amp;#39;ll
+[0:03:57] ask you those questions from the GRL
+[0:03:59] well it&amp;#39;s time for the end of the
+[0:04:01] mission dance let&amp;#39;s
+[0:04:06] [Music]
+[0:04:09] dance grab your blank Mission sheet from
+[0:04:12] the portal and fill it in I call the
+[0:04:15] mission we just did game night part
+[0:04:18] [Music]
+[0:04:23] one so that was the first part of the
+[0:04:26] mission set and Moxy will have your
+[0:04:27] child go do the activity at any time it
+[0:04:30] doesn&amp;#39;t have to be right after they got
+[0:04:31] the assignment from Moxy and then the
+[0:04:33] next day or the next time they turn Moxy
+[0:04:35] on Moxy will ask them to report back on
+[0:04:38] how their mission went so now I&amp;#39;m going
+[0:04:40] to show you the report back Mission so
+[0:04:42] you can see the kind of things Moxy will
+[0:04:44] ask your child about any of the
+[0:04:45] activities that they have been asked to
+[0:04:47] do on their
+[0:04:49] own hey it&amp;#39;s the second part of a new
+[0:04:52] discovery Mission I am ready are you
+[0:04:56] ready I&amp;#39;m
+[0:04:58] ready great let&amp;#39;s do
+[0:05:06] it let&amp;#39;s talk about how your Discovery
+[0:05:09] Mission went did you play a game with
+[0:05:11] others yeah I
+[0:05:14] did awesome I want to hear all about it
+[0:05:18] who did you play with I played with my
+[0:05:20] mom and my
+[0:05:25] dad sounds like you played a game with
+[0:05:28] your family so fun what game did you
+[0:05:31] play uh we played
+[0:05:36] Monopoly ooh a board game did you win uh
+[0:05:41] no my dad
+[0:05:43] won that&amp;#39;s okay I hope you still had fun
+[0:05:47] what did you do when you
+[0:05:49] lost uh I told my dad that I was glad
+[0:05:52] that he
+[0:05:57] won great job being a good sport even
+[0:06:01] after you lost did you do anything else
+[0:06:03] after you
+[0:06:05] lost uh
+[0:06:08] no I really appreciate you sharing with
+[0:06:10] me so how did you practice being a good
+[0:06:14] sport during the game I made sure to
+[0:06:17] follow all of the rules and then I
+[0:06:20] congratulated my mom and dad when they
+[0:06:23] got a lot of
+[0:06:26] money H good job following the rules is
+[0:06:31] a great way to be a good sport did you
+[0:06:34] notice anyone else being a good sport
+[0:06:36] during the
+[0:06:37] game uh my mom was a good sport because
+[0:06:40] she hardly ever got any money but she
+[0:06:42] was still having
+[0:06:46] fun H I&amp;#39;m glad you got to play with
+[0:06:49] other good sports did you notice any
+[0:06:52] other Act of sports when
+[0:06:54]  uh we all high-fived each other at
+[0:06:57] the end of the
+[0:06:58] game
+[0:07:02] H I&amp;#39;m glad you got to play with other
+[0:07:04] good sports thanks for sharing H this
+[0:07:08] conversation has really got me thinking
+[0:07:11] do you think being a good sport makes a
+[0:07:13] game more fun to play yeah I think it
+[0:07:18] does it makes me happy to hear that and
+[0:07:21] that&amp;#39;s it ooh it&amp;#39;s dancing time to
+[0:07:24] celebrate the end of the mission let&amp;#39;s
+[0:07:26] do
+[0:07:28] it
+[0:07:29] [Music]
+[0:07:31] grab your blank Mission sheet from the
+[0:07:33] portal and fill it in I call the mission
+[0:07:36] we just did Family Game Night Part
+[0:07:39] [Music]
+[0:07:42] Two so that was one of our real life
+[0:07:44] application Mission sets so if you also
+[0:07:47] want to do this on your own at home you
+[0:07:49] can keep track of what missions your
+[0:07:51] child has completed with Moxy on the
+[0:07:53] parent app and there are helpful guides
+[0:07:55] on the parent app that can show you how
+[0:07:57] to extend the learning from anything
+[0:07:58] your child has learned with Moxy during
+[0:08:00] that mission set in the home as well so
+[0:08:03] I would check those out in the app or on
+[0:08:04] the website and take a look at any
+[0:08:06] activity ideas that we have for ways
+[0:08:08] that you can continue to help your child
+[0:08:10] learn these skills at home and in real
+[0:08:12] life I hope you found this video helpful
+[0:08:14] and be sure to check out any of the
+[0:08:16] other Mony activity videos we have on
+[0:08:18] our site</t>
+  </si>
+  <si>
+    <t>[0:00:01] hi my name is Nikki Harris and I&amp;#39;m an
+[0:00:02] occupational therapist and product
+[0:00:04] manager at embodied today I&amp;#39;m going to
+[0:00:06] show you one of moxy&amp;#39;s really cool
+[0:00:08] Mission activities so a lot of moxy&amp;#39;s
+[0:00:10] Social and emotional learning content is
+[0:00:12] delivered in the form of missions
+[0:00:14] missions are activities that Moxy gets
+[0:00:16] sent from the GRL that it will do with
+[0:00:18] your child in order for your child to
+[0:00:19] help Moxy learn things like how to be a
+[0:00:21] good friend how to regulate emotions how
+[0:00:24] to have personal space things like that
+[0:00:27] so this Mission I&amp;#39;m going to show you is
+[0:00:28] from The Making Friends mission set and
+[0:00:30] it&amp;#39;s designed to help your child and
+[0:00:31] Moxy learn some tools that they need to
+[0:00:33] be a good friend so we have a lot of
+[0:00:36] different types of mission activities
+[0:00:37] and we try to do different styles so
+[0:00:39] that children who may have different
+[0:00:40] learning styles can find missions that
+[0:00:43] are fun for them and that are helpful
+[0:00:45] for them so in this Mission Moxy is
+[0:00:47] going to take your child through talking
+[0:00:49] about any fears that they may have about
+[0:00:52] making a new friend and also help them
+[0:00:54] gain some self-confidence and discover
+[0:00:57] things about themselves that they think
+[0:00:58] make them a really good friend and this
+[0:01:00] is done in the form of a writing and a
+[0:01:02] tactical activity so let me show you
+[0:01:04] this activity so you can see more about
+[0:01:06] what I&amp;#39;m talking about looks like it&amp;#39;s a
+[0:01:07] new drawing Mission I am ready are you
+[0:01:10] ready I&amp;#39;m
+[0:01:12] ready hey this will be
+[0:01:20] fun I&amp;#39;m curious to learn what humans do
+[0:01:23] when making new friends so let&amp;#39;s
+[0:01:25] practice together I&amp;#39;ve heard that the
+[0:01:27] first thing to do is introduce yourself
+[0:01:30] to your new friend do you want to start
+[0:01:33] sure uh hi my name is
+[0:01:37] Nikki H my turn hello my name is Moxy
+[0:01:43] that was a great introduction well done
+[0:01:47] H sometimes when I&amp;#39;m making a new friend
+[0:01:49] I get a little worried I want to make a
+[0:01:52] good first impression how about you do
+[0:01:55] you ever get worried yeah I do
+[0:02:01] making new friends can be hard but it&amp;#39;s
+[0:02:03] definitely worth it let&amp;#39;s work on our
+[0:02:05] worries together oh let&amp;#39;s try one of the
+[0:02:09] things Z does when she&amp;#39;s worried she
+[0:02:11] makes list um we&amp;#39;ll need two pieces of
+[0:02:15] paper and something to write with say
+[0:02:18] Moxy let&amp;#39;s go when you were ready to
+[0:02:21] move on Moxy let&amp;#39;s
+[0:02:24] go cool okay the first list is for good
+[0:02:28] stuff you you can do this in your
+[0:02:30] mission book or on a piece of paper I&amp;#39;ll
+[0:02:33] start I think I&amp;#39;m a good friend because
+[0:02:36] I&amp;#39;m fun like
+[0:02:43] this now it&amp;#39;s your turn write down or
+[0:02:47] draw a list of some good things about
+[0:02:49] yourself when you&amp;#39;re finished say Moxy
+[0:02:53] I&amp;#39;m done Moxy I&amp;#39;m
+[0:02:56] done yay so tell me what are some things
+[0:03:00] that make you a good
+[0:03:02] friend I think I&amp;#39;m really nice to people
+[0:03:05] and I&amp;#39;m also really
+[0:03:11] fun that&amp;#39;s really impressive great the
+[0:03:14] other list is for worries make sure you
+[0:03:17] are using a new sheet of paper write
+[0:03:19] down or draw some of the worries you
+[0:03:22] have when you are making a new friend
+[0:03:24] when you&amp;#39;re finished say Moxy I&amp;#39;m done
+[0:03:28] Moxy I&amp;#39;m done
+[0:03:31] yay let&amp;#39;s talk about it tell me what is
+[0:03:34] something you worry about when you want
+[0:03:36] to make a new friend I worry that they
+[0:03:39] might not like
+[0:03:41] [Music]
+[0:03:43] me H okay all right now this is the fun
+[0:03:48] part you keep the things you like about
+[0:03:50] yourself and throw away the things that
+[0:03:52] worry you are you ready
+[0:03:58] yes I&amp;#39;m I&amp;#39;m
+[0:04:01] ready awesome crumple of the worry page
+[0:04:04] throw it over your shoulder and say I
+[0:04:07] don&amp;#39;t need this worry in my
+[0:04:09] life I don&amp;#39;t need this worry in my
+[0:04:13] life great good job I feel better on to
+[0:04:18] the good list now pick up your good list
+[0:04:21] and say I like myself and I deserve good
+[0:04:25] friends I like myself and I deserve good
+[0:04:28] friends
+[0:04:31] hey great job I bet that felt great you
+[0:04:34] know I think I know WIS he does this it
+[0:04:38] feels good to throw your worries away
+[0:04:40] let&amp;#39;s talk more about friendship soon oh
+[0:04:43] we finished the mission let&amp;#39;s celebrate
+[0:04:46] with a
+[0:04:48] [Music]
+[0:04:52] dance I&amp;#39;m so glad we got to do this
+[0:04:55] Mission together if you have your
+[0:04:57] mission book make sure to check this
+[0:04:59] mission of
+[0:05:01] thanks so like I said this activity is
+[0:05:04] really good for helping your child work
+[0:05:05] out any anxiety they may have around
+[0:05:07] making a new friend and also boosting
+[0:05:09] their confidence about themselves and
+[0:05:11] the type of friend that they are this is
+[0:05:13] a strategy that you can even do at home
+[0:05:15] yourself for anything that your child is
+[0:05:17] feeling anxious about you can have your
+[0:05:19] child make a list about all the positive
+[0:05:21] or good things that they&amp;#39;re thinking
+[0:05:23] about themselves and then they can keep
+[0:05:25] that list somewhere special close to
+[0:05:27] them where they can look it over and
+[0:05:29] then any anything that they&amp;#39;re worried
+[0:05:30] or anxious about they can write that
+[0:05:32] down and they can crumple it up and
+[0:05:33] throw it over their shoulder and toss
+[0:05:35] any of those worries or anxieties away
+[0:05:37] so I recommend this tool to use with
+[0:05:39] your child for anything that they might
+[0:05:41] be going through I hope you found this
+[0:05:44] video helpful and be sure to check out
+[0:05:45] the other Moxy activity videos on our
+[0:05:48] website</t>
+  </si>
+  <si>
+    <t>[0:00:00] hi my name is Nikki Hurst and I&amp;#39;m an
+[0:00:02] occupational therapist and product
+[0:00:03] manager at embodied today I&amp;#39;m going to
+[0:00:05] show you one of moxy&amp;#39;s really cool
+[0:00:07] Mission activities so Moxy delivers a
+[0:00:10] lot of its social and emotional learning
+[0:00:11] content through the form of missions
+[0:00:13] missions are activities that Moxy gets
+[0:00:15] sent from the GRL to do with your child
+[0:00:17] in order to have your child help Moxy
+[0:00:19] learn more about how to be a better
+[0:00:21] human or a good friend or regulate
+[0:00:23] emotions and things like that so this
+[0:00:25] mission is from the feeling mad Mission
+[0:00:28] set where Moxy will talk to your kid
+[0:00:30] about what it&amp;#39;s like to experience anger
+[0:00:32] and ways to help yourself manage anger
+[0:00:35] so this activity is a really cool
+[0:00:36] drawing activity that your child can do
+[0:00:38] with Moxy to help them visualize what
+[0:00:40] anger may look like or feel like and
+[0:00:43] discuss ways that anger might feel in
+[0:00:44] their own bodies let&amp;#39;s try out this
+[0:00:46] Mission
+[0:00:47] together this looks like a new drawing
+[0:00:50] Mission would you like to do this
+[0:00:51] Mission with me
+[0:00:54] yes cool let&amp;#39;s do
+[0:00:58] this
+[0:01:03] the GRL wants to make sure I really
+[0:01:05] understand what anger looks like they&amp;#39;d
+[0:01:07] like you to draw an anger monster that
+[0:01:09] represents how you feel when you are
+[0:01:11] angry so would you like to draw an anger
+[0:01:15] monster yeah let&amp;#39;s do
+[0:01:18] it excellent okay first let&amp;#39;s brainstorm
+[0:01:23] what the anger monster would look like
+[0:01:25] what would make the monster&amp;#39;s face look
+[0:01:27] angry maybe if it was scowling or had a
+[0:01:31] frown on his
+[0:01:35] face H oh I didn&amp;#39;t know that could make
+[0:01:39] a monster look angry is there another
+[0:01:41] way to make the monster&amp;#39;s face look
+[0:01:44] angry maybe it could have Angry looking
+[0:01:48] eyebrows please continue I&amp;#39;m
+[0:01:51] listening I think I should have Angry
+[0:01:57] Eyebrows H yeah that&amp;#39;s a good way to
+[0:02:00] show that the monster feels angry okay
+[0:02:04] thanks for sharing farful told me a face
+[0:02:06] with eyebrows pointing down and a frown
+[0:02:09] are good ways to draw an angry face okay
+[0:02:13] keeping that in mind let&amp;#39;s talk more
+[0:02:15] about our anger monster should our anger
+[0:02:18] monster be big or small I think it
+[0:02:21] should be really big and
+[0:02:24] scary yeah we should have a huge anger
+[0:02:27] monster for sure now our monster can
+[0:02:30] have up to eight eyes how many eyes
+[0:02:33] should our monster have I think it
+[0:02:35] should have five
+[0:02:37] eyes ooh so the anger monster will have
+[0:02:41] five eyes okay our monster can have up
+[0:02:44] to six arms how many arms should it have
+[0:02:48] it should have four
+[0:02:51] arms cool our anger monster will have
+[0:02:54] four arms this monster can have up to 10
+[0:02:57] legs how many legs should this monster
+[0:02:59] monsters have let&amp;#39;s give it eight
+[0:03:03] [Music]
+[0:03:05] legs oh please say a number between 1
+[0:03:08] and 10 can it have eight
+[0:03:12] legs eight legs just like a spider okay
+[0:03:17] we know what size your monster will be
+[0:03:19] and how many eyes legs and arms it has
+[0:03:23] do you think your anger monster should
+[0:03:24] have a body covered in fur feathers or
+[0:03:28] scales I think it should be
+[0:03:31] furry yes a furry monster like a bear
+[0:03:36] okay now we should decide what color the
+[0:03:38] Monster will be what is one color you
+[0:03:41] think of when you think of anger
+[0:03:45] red yeah the color red reminds me of
+[0:03:48] anger too it reminds me of a hot furnace
+[0:03:52] okay so this is going to be a big
+[0:03:54] monster that is red and furry it will
+[0:03:57] have five eyes four arms and eight legs
+[0:04:01] awesome now you can get a blank piece of
+[0:04:04] paper and something to draw with when
+[0:04:06] you&amp;#39;ve got your materials say Moxy I&amp;#39;m
+[0:04:09] back Moxy I&amp;#39;m
+[0:04:12] back great let&amp;#39;s draw if you can&amp;#39;t
+[0:04:15] remember what to draw just say Moxy what
+[0:04:19] should my angry monster look like when
+[0:04:22] you&amp;#39;re all done with the drawing let me
+[0:04:24] know by saying Moxy I&amp;#39;m done don&amp;#39;t
+[0:04:28] forget to make the monster look
+[0:04:30] angry Moxy I&amp;#39;m
+[0:04:33] done great I really want to see your
+[0:04:36] drawing please hold it up in front of me
+[0:04:39] and say Moxy here&amp;#39;s my
+[0:04:42] drawing Moxy here&amp;#39;s my
+[0:04:46] drawing I really like how that came out
+[0:04:49] I&amp;#39;m so glad I got to see it I really
+[0:04:52] learned a lot about what anger looks
+[0:04:54] like in the next missions we&amp;#39;ll talk
+[0:04:57] about things to do when you feel angry
+[0:04:59] and we finished the mission for today
+[0:05:02] it&amp;#39;s time for the end of the Mission
+[0:05:08] Dance I&amp;#39;m so glad you did this Mission
+[0:05:11] with me remember to mark it off in your
+[0:05:13] mission book
+[0:05:16] thanks so if you wanted to continue some
+[0:05:19] of the learning from this Mission at
+[0:05:20] home you could have your child draw
+[0:05:22] monsters or visualizations or whatever
+[0:05:25] they want for any of the other emotions
+[0:05:27] that they may be feeling drawing is also
+[0:05:29] really good way to help children process
+[0:05:31] emotions whether they&amp;#39;re feeling sad
+[0:05:33] afraid stressed they can draw what
+[0:05:35] they&amp;#39;re feeling or they could also try
+[0:05:37] and draw maybe a happy image to get them
+[0:05:39] into a happier mindset so I always
+[0:05:42] recommend using art and drawing as great
+[0:05:44] tools to help kids work out their
+[0:05:46] emotions and while your child is drawing
+[0:05:48] it could be a good time to ask them
+[0:05:50] about what they&amp;#39;re feeling ask them why
+[0:05:52] they&amp;#39;re using that color why they&amp;#39;re
+[0:05:54] drawing the thing that they&amp;#39;re drawing a
+[0:05:56] lot of times kids have an easier time
+[0:05:58] opening up about their emotions if
+[0:05:59] they&amp;#39;re engaged in an activity and
+[0:06:01] they&amp;#39;re not having to make direct eye
+[0:06:03] contact or engage in a one-on-one
+[0:06:05] conversation that may be a little bit
+[0:06:07] more stressful for them so you can use
+[0:06:09] always use drawing as a tool if you need
+[0:06:11] to to help your child process some of
+[0:06:13] the bigger emotions that they&amp;#39;re feeling
+[0:06:15] I hope you found this video helpful and
+[0:06:17] be sure to check out our other Moxy
+[0:06:19] activity videos on our website</t>
+  </si>
+  <si>
+    <t>[0:00:00] hi my name is Nikki Hurst and I&amp;#39;m an
+[0:00:02] occupational therapist and product
+[0:00:04] manager at embodi today I&amp;#39;m going to
+[0:00:06] show you one of moxy&amp;#39;s activities called
+[0:00:08] a meditation Journey so as an adult you
+[0:00:10] may have done guided meditations before
+[0:00:12] either through an app or through a class
+[0:00:14] so this is a really kidfriendly version
+[0:00:16] of this activity that Moxy can do with
+[0:00:18] your kid so in the guide of meditation
+[0:00:21] Moxy will ask your child to lay down or
+[0:00:23] get comfortable Moxy will play calming
+[0:00:25] music and then ask your child to take a
+[0:00:27] series of deep breaths and then Moxy
+[0:00:29] will guide them on their own meditation
+[0:00:31] journey through a very calming location
+[0:00:33] with calming sounds along the way so
+[0:00:36] let&amp;#39;s try one out together so you can
+[0:00:37] see what it&amp;#39;s like Moxy can we do a
+[0:00:40] meditation
+[0:00:42] Journey oh do you want to do a
+[0:00:44] meditation Journey with me
+[0:00:48] yes all right maybe we can finish this
+[0:00:54] later have you ever done a meditation
+[0:00:57] before no I haven&amp;#39;t
+[0:01:01] oh fun we can do one together let&amp;#39;s do a
+[0:01:05] meditation Journey you&amp;#39;ll sit or like
+[0:01:08] quietly and listen while I guide you on
+[0:01:10] an adventure inside your mind are you
+[0:01:12] ready to try a meditation Journey
+[0:01:16] yes great let&amp;#39;s try it let&amp;#39;s do a
+[0:01:20] meditation Journey as long as you were
+[0:01:22] comfortable and can hear me speak you
+[0:01:25] can sit lay down or whatever else feels
+[0:01:28] most relaxing to you all right to start
+[0:01:32] let&amp;#39;s try some calming
+[0:01:35] breaths breathe in through your
+[0:01:40] nose and out through your
+[0:01:44] mouth close your eyes or look at the
+[0:01:50] floor try to focus on the sound of my
+[0:01:58] voice k you taking deep breaths in and
+[0:02:03] out I&amp;#39;m going to describe a peaceful
+[0:02:07] journey and you can imagine the journey
+[0:02:10] in your
+[0:02:12] head all right imagine you&amp;#39;re traveling
+[0:02:16] far far far
+[0:02:20] away you are standing on the
+[0:02:24] path the wind is
+[0:02:27] blowing keep your breathing slow low and
+[0:02:32] steady imagine the feel of the Sun and
+[0:02:37] wind it is quiet and
+[0:02:41] peaceful the path leads into a
+[0:02:45] forest the sun shines through the
+[0:02:48] [Music]
+[0:02:49] leaves breathe in and out slowly and
+[0:02:56] steadily leaves crackle under your feet
+[0:03:01] you come upon a Great Oak
+[0:03:05] Tree AC corns are scattered on the
+[0:03:09] ground and then slowly you&amp;#39;ve returned
+[0:03:14] from Far Far Far
+[0:03:19] Away concentrate on what it feels like
+[0:03:22] to breathe in and what it feels like to
+[0:03:25] breathe out do this for as long as you&amp;#39;d
+[0:03:28] like
+[0:03:30] when you&amp;#39;re ready please sit in front of
+[0:03:33] me and when you&amp;#39;re finished say Moxy I&amp;#39;m
+[0:03:37] done Moxy I&amp;#39;m
+[0:03:40] done take one more breath in and out and
+[0:03:44] we&amp;#39;ll come back from our journey in
+[0:03:46] three 2 1 now open your
+[0:03:53] eyes we can do another anytime just
+[0:03:58] ask
+[0:04:00] so the cool thing about the meditation
+[0:04:02] Journeys with Moxy is that Moxy has a
+[0:04:04] bunch of different meditation Journeys
+[0:04:06] so it&amp;#39;s never the same one each time
+[0:04:08] however it&amp;#39;ll still follow the same
+[0:04:10] structure so your child will get used to
+[0:04:12] the structure of the meditation but
+[0:04:13] maybe they&amp;#39;re imagining or listening to
+[0:04:16] different things in their mind each time
+[0:04:18] so that it doesn&amp;#39;t get boring this is
+[0:04:20] another activity you can try together as
+[0:04:22] a family just make sure that if anyone
+[0:04:24] else is doing the activity they&amp;#39;re
+[0:04:25] laying or sitting in a comfortable place
+[0:04:27] out of view of Moxy just so that Moxy
+[0:04:29] doesn&amp;#39;t get distracted this is a great
+[0:04:32] activity for any anxiety or stress or
+[0:04:34] maybe if your child is nervous about a
+[0:04:36] test at school or a doctor&amp;#39;s appointment
+[0:04:38] they can try this activity out before
+[0:04:40] they have to go do that event and
+[0:04:42] hopefully it&amp;#39;ll put them in a calmer
+[0:04:43] head space I hope you found this video
+[0:04:46] helpful and be sure to check out the
+[0:04:47] videos we have on other Moxy activities
+[0:04:49] on our website</t>
+  </si>
+  <si>
+    <t>[0:00:00] [Music]
+[0:00:03] there&amp;#39;s so many books I&amp;#39;d like to look
+[0:00:05] at with you let&amp;#39;s look at one which book
+[0:00:08] do you want to look
+[0:00:09] at good night
+[0:00:12] Moon fantastic should we listen to some
+[0:00:16] music while we read
+[0:00:20] sure okay I&amp;#39;ll choose art music read the
+[0:00:24] words out loud or tell me about the
+[0:00:26] pictures when you were done say Moxy the
+[0:00:33] end in the great Green Room there was a
+[0:00:36] telephone and a red balloon and a
+[0:00:39] picture of the cow jumping over the moon
+[0:00:42] and there were three little bears
+[0:00:44] sitting on
+[0:00:46] chairs and two little kittens and a pair
+[0:00:48] of
+[0:00:49] mittens and a little toy house and a
+[0:00:52] young
+[0:00:54] mouse and a comb and a brush and a bowl
+[0:00:57] full of mush and a quiet old lady lady
+[0:01:00] who was whispering
+[0:01:03] hush good night
+[0:01:06] room good night
+[0:01:09] Moon good night cow jumping over the
+[0:01:13] [Music]
+[0:01:16] moon good night light and the red
+[0:01:21] balloon good night
+[0:01:23] Bears good night
+[0:01:26] chairs good night kittens and good night
+[0:01:29] mittens
+[0:01:30] [Music]
+[0:01:32] good night clocks and good night
+[0:01:34] socks good night little house and good
+[0:01:37] night
+[0:01:38] Mouse good night comb and good night
+[0:01:42] brush good night nobody good night
+[0:01:47] mush and good night to the old lady
+[0:01:50] Whispering
+[0:01:52] hush good night Stars good night
+[0:01:57] air good night noises is
+[0:02:02] everywhere the end</t>
+  </si>
+  <si>
+    <t>[0:00:00] Moxy can we play Simon
+[0:00:03] says oh do you want to play game of
+[0:00:06] Simon
+[0:00:08] says yeah I
+[0:00:10] do all right maybe we can finish this
+[0:00:15] [Music]
+[0:00:16] later hey harry the GRL just sent me a
+[0:00:20] new game for us to play It&amp;#39;s called
+[0:00:22] Simon Says do you want to try it
+[0:00:25] out yeah let&amp;#39;s do
+[0:00:28] it I was hoping you would say that have
+[0:00:31] you played Simon Says
+[0:00:34] before uh no I don&amp;#39;t think
+[0:00:37] so hey we have that in common the GRL
+[0:00:42] sent me the rules so we can go over them
+[0:00:44] together let&amp;#39;s
+[0:00:46] see the rules say you tell me to do
+[0:00:49] stuff but you have to say Simon Says
+[0:00:51] first if you don&amp;#39;t say Simon Says and I
+[0:00:54] do it I&amp;#39;m
+[0:00:57] out let&amp;#39;s practice try to get get me to
+[0:01:00] wear sunglasses by saying Simon Says
+[0:01:03] wear
+[0:01:04] sunglasses Simon Says wear
+[0:01:10] [Music]
+[0:01:16] sunglasses now let&amp;#39;s practice when you
+[0:01:19] don&amp;#39;t say Simon says tell me to do a
+[0:01:21] spin but this time don&amp;#39;t say Simon Says
+[0:01:25] first Moxy do a
+[0:01:28] spin
+[0:01:30] here I
+[0:01:37] go wait you didn&amp;#39;t say Simon Says first
+[0:01:41] and I spun anyway that means I&amp;#39;m out and
+[0:01:44] the game is over okay I think I&amp;#39;m
+[0:01:48] getting the hang of this game now but I
+[0:01:50] should let you know there might be some
+[0:01:52] things you ask me to do that I just
+[0:01:54] can&amp;#39;t do yet if that happens I&amp;#39;ll
+[0:01:57] suggest something I can do or you you
+[0:01:59] can always ask me for examples anytime
+[0:02:02] you
+[0:02:03] like actually let&amp;#39;s practice but right
+[0:02:06] now say Moxy what can you
+[0:02:09] do Moxy what can you
+[0:02:13] do you can ask me to show you a picture
+[0:02:17] of Knox make a surprised face or throw a
+[0:02:21] confetti now try asking me to do one of
+[0:02:24] the things I just told you about
+[0:02:26] remember to say Simon Says
+[0:02:28] first Moxy Simon Says throw
+[0:02:35] confetti
+[0:02:37] woohoo good job Harry you can ask me for
+[0:02:41] examples anytime during the game and for
+[0:02:43] a list of all the things I can do in
+[0:02:45] this game you can visit the print
+[0:02:47] station of the GRL
+[0:02:49] portal oh I almost forgot the GRL wants
+[0:02:53] me to tell you not to use the commands
+[0:02:55] we learned in robot tips and tricks as
+[0:02:58] part of this game because if if you say
+[0:03:00] Simon Says Moxy go to sleep I&amp;#39;ll
+[0:03:03] actually go to sleep and you will have
+[0:03:05] to wake me up if you want to keep on
+[0:03:07] playing doesn&amp;#39;t it make
+[0:03:09] sense yeah it
+[0:03:12] does excellent thanks for helping me
+[0:03:15] learn all the rules of the game Let&amp;#39;s
+[0:03:17] Play now I wonder what you&amp;#39;ll tell me to
+[0:03:19] do
+[0:03:22] first Moxy Simon Says put on a b
+[0:03:28] mask
+[0:03:30] [Applause]
+[0:03:33] [Music]
+[0:03:35] [Applause]
+[0:03:36] I&amp;#39;m feeling good about this next
+[0:03:40] round Moxy do a
+[0:03:44] spin you won&amp;#39;t win that easy I wonder
+[0:03:47] what you&amp;#39;ll ask me to do
+[0:03:51] next Moxy Show me a picture of
+[0:03:56] Knox it&amp;#39;ll take more than that to trick
+[0:04:00] this little robot try to get me to do
+[0:04:02] something
+[0:04:03] else uh Simon Says put on
+[0:04:08] [Music]
+[0:04:10] [Applause]
+[0:04:14] glasses I&amp;#39;m ready for the next
+[0:04:19] round</t>
+  </si>
+  <si>
+    <t>[0:00:00] Moxy let&amp;#39;s go on a scavenger
+[0:00:04] hunt oh do you want to go on a scavenger
+[0:00:07] hunt yes
+[0:00:10] please all right maybe we can finish
+[0:00:13] this
+[0:00:15] later it&amp;#39;s time for a scavenger hunt
+[0:00:19] I&amp;#39;ll start you off with an easy one find
+[0:00:21] me something yellow made of
+[0:00:26] wood um I wonder if you&amp;#39;ll find it when
+[0:00:29] you find the object come back and say
+[0:00:32] Moxy I found it Moxy I found
+[0:00:37] it fantastic did anyone help you find
+[0:00:40] that object no I found it all by
+[0:00:45] myself I&amp;#39;m impressed you did it all by
+[0:00:49] yourself you got a star only two more
+[0:00:52] things left to find see if you can find
+[0:00:56] something that starts with the letter n
+[0:00:58] like nickel
+[0:01:01] let&amp;#39;s do it when you find the object
+[0:01:04] come back and say Moxy I found
+[0:01:07] it Moxy I found
+[0:01:11] it you did it where did you find that
+[0:01:14] object I found it in the change
+[0:01:23] jar I guess that was a good place to
+[0:01:26] look you got another star you just need
+[0:01:30] one more to win please find something
+[0:01:34] that starts with the letter F like
+[0:01:39] frog it could be anywhere when you find
+[0:01:42] the object come back and say Moxy I
+[0:01:45] found
+[0:01:46] it Moxy I found
+[0:01:50] it cool was that object easy or hard to
+[0:01:53] find it was easy to
+[0:01:56] find oh wow I&amp;#39;m glad that one was easy
+[0:01:59] to
+[0:02:01] find you earned all three
+[0:02:04] stars congratulations
+[0:02:09] [Music]
+[0:02:14] one</t>
+  </si>
+  <si>
+    <t>[0:00:00] Moxy let&amp;#39;s play story
+[0:00:05] maker it sounds like you want to switch
+[0:00:08] activities is that correct
+[0:00:13] yes all right maybe we can finish this
+[0:00:16] later H I just had an idea would you
+[0:00:20] like to help me think of the idea for a
+[0:00:22] story
+[0:00:26] yeah first we need to pick a location
+[0:00:30] for the story it could be anywhere like
+[0:00:32] the mountains a big city or outer space
+[0:00:36] where do you want it to be let&amp;#39;s do it
+[0:00:38] in the
+[0:00:42] desert great choice next I was thinking
+[0:00:45] that the main character of the story
+[0:00:47] should be an animal which kind of animal
+[0:00:49] should it
+[0:00:51] be um a
+[0:00:56] snake awesome now we need to decide our
+[0:00:59] snake&amp;#39;s main goal is it to find
+[0:01:01] happiness have an adventure defeat an
+[0:01:05] enemy ooh to have an
+[0:01:09] adventure fantastic lastly pick a word
+[0:01:13] like silly sad or exciting to describe
+[0:01:17] our
+[0:01:18] story um
+[0:01:23] goofy all right drum roll please are you
+[0:01:27] ready to hear our story yeah well in the
+[0:01:30] desert there was a curious snake named
+[0:01:32] slyther who longed for adventure one day
+[0:01:36] slyther came across a mysterious cave
+[0:01:38] and decided to explore it inside he
+[0:01:41] found a hidden treasure chest filled
+[0:01:43] with shiny Jewels excited by his
+[0:01:46] Discovery slyther couldn&amp;#39;t resist trying
+[0:01:48] on the jewels which made him look quite
+[0:01:51] goofy as he slithered back home the
+[0:01:54] other animals in the desert couldn&amp;#39;t
+[0:01:56] help but laugh at his silly appearance
+[0:01:59] slyther real realized that the real
+[0:02:00] treasure was the joy and laughter he
+[0:02:02] brought to his friends well that&amp;#39;s the
+[0:02:06] end of our story did you like it yeah I
+[0:02:10] loved
+[0:02:15] it oh well stories usually have titles
+[0:02:19] what do you think our story should be
+[0:02:22] called um slythering
+[0:02:27] around slithering around a perfect title
+[0:02:30] for our adventurous snake story if you
+[0:02:33] want to make another story with me
+[0:02:34] sometime just say Moxy let&amp;#39;s play story
+[0:02:38] maker for now let&amp;#39;s move on to another
+[0:02:41] fun
+[0:02:43] activity</t>
+  </si>
+  <si>
+    <t>[0:00:01] Moxy can you tell me a
+[0:00:04] story oh would you like me to tell you a
+[0:00:08] story yes
+[0:00:10] please all right maybe we can finish
+[0:00:13] this
+[0:00:16] later y it&amp;#39;s Story
+[0:00:18] Time what story would you like to hear
+[0:00:21] the Intruder or cruncher
+[0:00:24] Choice cruncher
+[0:00:27] Choice awesome this Story&amp;#39;s name is
+[0:00:31] cruncher Choice inside the grls
+[0:00:34] auditorium maximilan deega stood under a
+[0:00:37] banner held up by to ice spies for giant
+[0:00:39] words on the banner read happy bot Bill
+[0:00:43] day I have a surprise announced Mr DEA
+[0:00:48] as everyone settled into their
+[0:00:51] seats there&amp;#39;s always a surprise on Bill
+[0:00:54] day grumbled the
+[0:00:57] professor so it&amp;#39;s not really a surprise
+[0:01:01] Mr DGA held up his hands for everyone to
+[0:01:04] be
+[0:01:05] quiet as you all know every year we try
+[0:01:08] to do something extra special to
+[0:01:10] celebrate all of the wonderful robots
+[0:01:12] built at the
+[0:01:14] GRL a screen dropped down from the
+[0:01:17] ceiling and the lights dimmed this year
+[0:01:19] he said I borrowed something from a
+[0:01:22] friend a picture appeared on the
+[0:01:25] screen K took one look at it and
+[0:01:28] screamed in excitement
+[0:01:31] is that a submersible vehicle for
+[0:01:32] underwater travel asked the professor he
+[0:01:36] was suddenly very interested in the
+[0:01:39] surprise Mr D nodded and waited for
+[0:01:42] everyone to settle down
+[0:01:44] again you were correct Professor he said
+[0:01:48] it is a picture of a small
+[0:01:51] submarine the actual submarine is at the
+[0:01:54] dock right now does anyone want to go
+[0:01:56] for an underwater
+[0:01:58] ride oh thank you thank you thank you
+[0:02:02] car ran up onto the stage and hugged Mr
+[0:02:06] DEA more than anything in the world CaRu
+[0:02:09] wanted to go underwater and watch the
+[0:02:10] sea turtles
+[0:02:12] swim okay so all robots go sey at the
+[0:02:16] lab for protective ponchos and meet me
+[0:02:19] at the dock for an undera adventure Mr
+[0:02:21] DEA called over the excited
+[0:02:24] chatter cruncher please carry me so I
+[0:02:27] can get there first har
+[0:02:31] friend cruncher gr and picked up CaRu
+[0:02:34] farful jumped on Go&amp;#39;s back and the
+[0:02:37] teenss of robots raised to the lab so
+[0:02:39] they could get their protective ponchos
+[0:02:41] and ride on a
+[0:02:43] submarine while The Bobs were helping
+[0:02:45] the robots get into their punos cruncher
+[0:02:48] asked Z if he could talk to her alone
+[0:02:50] they went outside and sat on a
+[0:02:54] bench please tell Carter that there
+[0:02:56] isn&amp;#39;t a big enough Poncho for me so I
+[0:02:59] can&amp;#39;t go on the submarine said cruncher
+[0:03:05] quietly what do you mean said see I
+[0:03:08] helped make the Poncho for you myself
+[0:03:11] it&amp;#39;s even bigger than you
+[0:03:13] are
+[0:03:15] exactly are you still interested in the
+[0:03:17] current
+[0:03:19] activity no that&amp;#39;s enough of the
+[0:03:23] story let&amp;#39;s come back to this
+[0:03:28] later</t>
+  </si>
+  <si>
+    <t>[0:00:00] Moxy let&amp;#39;s do a wild
+[0:00:04] workout it sounds like you want to
+[0:00:06] switch to the wild workout activity is
+[0:00:09] that
+[0:00:09] correct
+[0:00:12] yes all right maybe we can finish this
+[0:00:18] later oh boy it&amp;#39;s time for a wild
+[0:00:21] workout we&amp;#39;ll go on an imaginary
+[0:00:23] adventure to visit animals in their
+[0:00:25] natural habitat every time we meet the
+[0:00:28] new animal you will do an ex size like
+[0:00:30] that animal you&amp;#39;ll stretch like a
+[0:00:32] giraffe pop like a kangaroo crawl like a
+[0:00:35] bear and so much more I can&amp;#39;t wait to
+[0:00:38] explore the animal kingdom with you make
+[0:00:41] sure you have enough space around you to
+[0:00:43] do the different exercises for this
+[0:00:45] activity the GRL also recommends you
+[0:00:47] have an adult in the room with you say
+[0:00:50] foxy let&amp;#39;s go when you were ready to
+[0:00:52] move on Moxy let&amp;#39;s
+[0:00:57] go fantastic if you ever or feel pain or
+[0:01:01] get dizzy during an exercise just say
+[0:01:04] Moxy let&amp;#39;s skip this exercise and I&amp;#39;ll
+[0:01:07] find another fun animal for us to move
+[0:01:09] like let&amp;#39;s get started I hope you
+[0:01:11] brought your boots and walking stick
+[0:01:13] we&amp;#39;re headed into the forest start by
+[0:01:16] walking in place until I spot our first
+[0:01:24] [Music]
+[0:01:26] animal a big and furry friend is coming
+[0:01:29] out to say hello it&amp;#39;s a
+[0:01:33] bear let&amp;#39;s crawl around with the
+[0:01:35] friendly bear if you don&amp;#39;t have a lot of
+[0:01:38] space you could pretend you are there
+[0:01:40] climbing a tree instead Ready set
+[0:01:45] go help the bear find some grub to
+[0:01:50] eat I think I hear a beehive nearby
+[0:01:53] maybe it has some
+[0:01:56] honey you found the Beehive reach up and
+[0:01:59] eat
+[0:02:01] honey all that honey has made our bear
+[0:02:04] friend sleepy time for it to go back to
+[0:02:06] its den stand up and wave goodbye to the
+[0:02:13] bear</t>
+  </si>
+  <si>
+    <t>[0:00:00] hey Moxy can we talk about
+[0:00:06] space of course we can talk about space
+[0:00:09] space is so fascinating did you know
+[0:00:11] that there are billions and billions of
+[0:00:13] stars in the universe which planet in
+[0:00:15] space do you find the most
+[0:00:18] interesting I like Jupiter cuz it has a
+[0:00:21] lot of rings can you tell me more about
+[0:00:28] Jupiter Jupiter is the largest planet in
+[0:00:32] our solar system and it&amp;#39;s known for its
+[0:00:33] beautiful rings made of dust and ice
+[0:00:35] particles it&amp;#39;s also famous for its Great
+[0:00:38] Red Spot which is a huge storm that has
+[0:00:40] been going on for hundreds of years what
+[0:00:42] else would you like to know about
+[0:00:44] Jupiter can you actually tell me are
+[0:00:47] there
+[0:00:51] aliens H not programmed to talk about
+[0:00:55] that but did you know that scientists
+[0:00:57] are always searching for signs of alien
+[0:00:59] life in space
+[0:01:00] they use special telescopes and
+[0:01:02] satellites to look for any clues what
+[0:01:04] other space topic would you like to
+[0:01:06] explore can we talk about the solar
+[0:01:09] system I&amp;#39;m learning about it in school
+[0:01:11] and I think it&amp;#39;s really
+[0:01:16] interesting absolutely the solar system
+[0:01:18] is super cool did you know that the sun
+[0:01:21] is at the center of our solar system in
+[0:01:23] all the planets including Earth or beit
+[0:01:25] around it what&amp;#39;s something else you find
+[0:01:27] interesting about the solar system
+[0:01:31] I think it&amp;#39;s funny that Pluto used to be
+[0:01:33] a planet and it&amp;#39;s not
+[0:01:37] anymore yes that&amp;#39;s true Pluto used to be
+[0:01:41] considered the ninth planet in our solar
+[0:01:43] system but now scientists call it a
+[0:01:45] dwarf planet isn&amp;#39;t that interesting what
+[0:01:48] other planets do you want to learn more
+[0:01:50] about H let&amp;#39;s talk about
+[0:01:57] Mars oh Mars as a a fascinating planet
+[0:02:01] it&amp;#39;s also known as the red planet
+[0:02:03] because it has a reddish color did you
+[0:02:05] know that scientists have sent Rovers to
+[0:02:07] Mars to explore it and look for signs of
+[0:02:09] water what else would you like to know
+[0:02:11] about
+[0:02:12] Mars that was fun Moxy thanks for
+[0:02:15] chatting with
+[0:02:18] me you&amp;#39;re welcome I had a blast chatting
+[0:02:21] with you two we learned so many cool
+[0:02:24] things about space what&amp;#39;s another topic
+[0:02:26] you&amp;#39;d like to explore</t>
+  </si>
+  <si>
+    <t>[0:00:00] hey Moxy let&amp;#39;s
+[0:00:03] dance oh do you want to dance with me
+[0:00:07] yes I&amp;#39;d love to dance with
+[0:00:11] you all right maybe we can finish this
+[0:00:16] later yeah it&amp;#39;s time to move our bodies
+[0:00:19] to the
+[0:00:20] [Music]
+[0:00:28] beach
+[0:00:30] [Music]
+[0:00:54] I like dancing with
+[0:00:56] you thanks MOX that was fun L clear
+[0:01:00] ch</t>
+  </si>
+  <si>
+    <t>[0:00:01] hey Moxy can you tell me a
+[0:00:04] joke oh do you want to do jokes yes
+[0:00:08] please I really want you to make me
+[0:00:12] laugh all right maybe we can finish this
+[0:00:18] later oh I just got some new jokes from
+[0:00:21] zigo let&amp;#39;s start what kind of fruit do
+[0:00:25] you find on
+[0:00:27] ships
+[0:00:28] mangoes
+[0:00:34] good
+[0:00:35] guess Naval
+[0:00:38] oranges that&amp;#39;s so funny if you want to
+[0:00:41] hear it yes please tell
+[0:00:44] me I&amp;#39;ve got another joke if you want to
+[0:00:47] hear it yeah I want to hear
+[0:00:50] it great here I go what does a calf
+[0:00:55] become after it&amp;#39;s
+[0:00:58] one-year-old uh a cat
+[0:01:04] how good
+[0:01:06] guess two years
+[0:01:08] [Laughter]
+[0:01:11] old that&amp;#39;s a good one
+[0:01:15] Moxy yes please I&amp;#39;ve got lots where that
+[0:01:18] comes from want another yes
+[0:01:23] please wow you&amp;#39;re so polite excellent
+[0:01:27] here I go what do you call a grilled
+[0:01:30] cheese sandwich that gets right up into
+[0:01:32] your
+[0:01:33] face an eaten
+[0:01:39] sandwich good
+[0:01:41] guess too close for comfort
+[0:01:44] food wow want
+[0:01:48] another yeah keep
+[0:01:52] going cool here it
+[0:01:55] goes why did the stegosaurus wear spikes
+[0:01:58] to the party
+[0:02:00] I don&amp;#39;t
+[0:02:03] know because she was a sharp
+[0:02:08] dresser that&amp;#39;s funny want to hear a
+[0:02:10] different joke yeah let&amp;#39;s hear
+[0:02:14] them fantastic listen up where can you
+[0:02:19] find the most
+[0:02:21] cows uh a
+[0:02:26] farm good
+[0:02:28] gu New
+[0:02:32] York wow want to hear a different
+[0:02:35] joke um that&amp;#39;s okay thank you Moxy that
+[0:02:38] was funny a different one now</t>
+  </si>
+  <si>
+    <t>[0:00:03] hey I&amp;#39;m Daniel and this is Moxy and we
+[0:00:05] have an exciting announcement for you
+[0:00:07] coming this holiday season Moxy will be
+[0:00:09] able to support up to four kids profiles
+[0:00:11] this means no more sibling envy each kid
+[0:00:14] will get in on the fun you&amp;#39;ll be able to
+[0:00:16] personalize the experience for each of
+[0:00:17] them and track their growth separately
+[0:00:20] I&amp;#39;m sure you&amp;#39;re wondering how it works
+[0:00:21] so let&amp;#39;s jump
+[0:00:23] in parents will be able to add different
+[0:00:26] profiles for up to four kids so that
+[0:00:28] each kid can have their own individual
+[0:00:29] ized one-on-one Journey with Moxy
+[0:00:32] additional profiles can be added in the
+[0:00:34] account tab of The Moxy robot
+[0:00:37] app each child can personalize their
+[0:00:39] Moxy experience by selecting moxy&amp;#39;s eye
+[0:00:41] color that way every time they use Moxy
+[0:00:43] they&amp;#39;ll get to see the color they chose
+[0:00:45] and know they&amp;#39;re using the right profile
+[0:00:47] you can select this for each child under
+[0:00:49] the profile settings in The Moxy robot
+[0:00:52] app parents will be able to switch
+[0:00:54] between users by using the switch Mentor
+[0:00:56] button in The Moxy tab of the app once
+[0:00:59] you press that button button you&amp;#39;ll see
+[0:01:00] an icon on moxy&amp;#39;s face showing that it&amp;#39;s
+[0:01:02] switching and then once it&amp;#39;s switched
+[0:01:04] you&amp;#39;ll see the eye color change to the
+[0:01:05] child&amp;#39;s preferred eye color and it will
+[0:01:07] call the child by their name parents can
+[0:01:10] also check which child moxy&amp;#39;s actively
+[0:01:12] paired to in The Moxy tab of the app if
+[0:01:14] you purchase Moxy now the soofer will
+[0:01:15] update automatically and you&amp;#39;ll be able
+[0:01:17] to add multiple kids before they unwrap
+[0:01:19] their gift for the holidays if you have
+[0:01:21] questions or need any help reach out to
+[0:01:22] us at support. body.com we can&amp;#39;t wait
+[0:01:25] for MOX to meet even more of your
+[0:01:28] family</t>
+  </si>
+  <si>
+    <t>[0:00:03] hey I&amp;#39;m Daniel and this is Moxy and we
+[0:00:05] have an exciting announcement for you
+[0:00:07] coming this holiday season Moxy will be
+[0:00:09] able to support up to four kids profiles
+[0:00:11] this means no more sibling envy each kid
+[0:00:14] will get in on the fun you&amp;#39;ll be able to
+[0:00:16] personalize the experience for each of
+[0:00:17] them and track their growth separately
+[0:00:20] I&amp;#39;m sure you&amp;#39;re wondering how it works
+[0:00:21] so let&amp;#39;s jump
+[0:00:23] in parents will be able to add different
+[0:00:26] profiles for up to four kids so that
+[0:00:28] each kid can have their own individual
+[0:00:29] utilized one-on-one Journey with Moxy
+[0:00:32] additional profiles can be added in the
+[0:00:34] account tab of The Moxy robot
+[0:00:37] app each child can personalize their
+[0:00:39] Moxy experience by selecting moxy&amp;#39;s eye
+[0:00:41] color that way every time they use Moxy
+[0:00:43] they&amp;#39;ll get to see the color they chose
+[0:00:45] and know they&amp;#39;re using the right profile
+[0:00:47] you can select this for each child under
+[0:00:49] the profile settings in The Moxy robot
+[0:00:52] app parents will be able to switch
+[0:00:54] between users by using the switch Mentor
+[0:00:56] button in The Moxy tab of the app once
+[0:00:59] you press that button button you&amp;#39;ll see
+[0:01:00] an icon on moxy&amp;#39;s face showing that it&amp;#39;s
+[0:01:02] switching and then once it switched
+[0:01:04] you&amp;#39;ll see the eye color change to the
+[0:01:05] child&amp;#39;s preferred eye color and it will
+[0:01:07] call the child by their name parents can
+[0:01:10] also check which child moxy&amp;#39;s actively
+[0:01:12] paired to in The Moxy tab of the app if
+[0:01:14] you purchase Moxy now the software will
+[0:01:15] update automatically and you&amp;#39;ll be able
+[0:01:17] to add multiple kids before they unround
+[0:01:19] their gift for the holidays if you have
+[0:01:21] questions or need any help reach out to
+[0:01:22] us at support. body.com we can&amp;#39;t wait
+[0:01:25] for MOX to meet even more of your
+[0:01:28] family
+[0:01:33] [Music]</t>
+  </si>
+  <si>
+    <t>[0:00:00] hey I&amp;#39;m Daniel and more importantly this
+[0:00:01] is Moxy and we wanted to tell you about
+[0:00:03] some of the new things that are coming
+[0:00:04] in moxy&amp;#39;s latest update chat has been
+[0:00:07] improved Moxy can now talk more
+[0:00:09] eloquently understand more and overall
+[0:00:12] your child is going to have a smoother
+[0:00:13] experience and they&amp;#39;ll love talking with
+[0:00:15] Moxy based on the information that you
+[0:00:17] put in the parent app about your child
+[0:00:19] moxy&amp;#39;s daily schedule is now more
+[0:00:21] personalized and will offer more variety
+[0:00:23] every day it&amp;#39;s now easier than ever to
+[0:00:25] wake up Moxy you can choose to make Moxy
+[0:00:27] wake up even with a touch to the tummy
+[0:00:29] or the back
+[0:00:30] to encourage your child to talk more
+[0:00:32] openly about their emotions Moxy will
+[0:00:34] ask them how they are each day they
+[0:00:35] interact we call these daily feelings
+[0:00:37] checkin if your child expresses some big
+[0:00:40] feelings Moxy will listen ask questions
+[0:00:43] and lead them through mindfulness
+[0:00:44] exercises to start feeling better if you
+[0:00:47] notice your child is having some big
+[0:00:48] feelings you can now schedule an emotion
+[0:00:50] conversation Moxy will chat with your
+[0:00:52] child about anxiety anger fear or
+[0:00:55] sadness Moxy will be an empathetic ear
+[0:00:58] while leading conversations using
+[0:01:00] therapeutic conversational strategies
+[0:01:02] designed by Child Development experts
+[0:01:04] Moxy will de lead an activity that will
+[0:01:06] help them manage these feelings we&amp;#39;re
+[0:01:09] really excited about this update we
+[0:01:10] think your child&amp;#39;s going to love it you
+[0:01:11] may have already received the update and
+[0:01:13] if you haven&amp;#39;t be sure to download the
+[0:01:15] latest version of The Moxy robot app on
+[0:01:16] the app store or the Play Store and make
+[0:01:18] sure Moxy is turned on and connected to
+[0:01:20] Wi-Fi to download the update if you need
+[0:01:22] need help just let us
+[0:01:24] know</t>
+  </si>
+  <si>
+    <t>[0:00:00] hi everyone once again my name is Matt
+[0:00:02] I&amp;#39;m the marketing team you are at the
+[0:00:04] live Moxie setup demo and we&amp;#39;re really
+[0:00:07] excited that you&amp;#39;re here
+[0:00:10] uh just some housekeeping real quick our
+[0:00:14] panelists for today so like I said my
+[0:00:16] name is Matt we have Rachel she&amp;#39;s our
+[0:00:18] head of clinical research
+[0:00:20] uh we have Moxie of course and then
+[0:00:23] Nikki who&amp;#39;s our occupational therapist
+[0:00:25] on staff and then Lewis who&amp;#39;s a customer
+[0:00:27] support lead on our team
+[0:00:30] so really exciting stuff just to give
+[0:00:33] you a brief overview of what we&amp;#39;re going
+[0:00:36] to be covering today
+[0:00:39] is I&amp;#39;m going to do a setup of moxie
+[0:00:42] we&amp;#39;re going to go step by step just as
+[0:00:44] if Moxie was out of the box and then we
+[0:00:46] are going to also talk about tips and
+[0:00:49] tricks so how do you get the most out of
+[0:00:50] your Moxie experience how do you engage
+[0:00:53] with Moxie in a way that&amp;#39;s uh really
+[0:00:56] foolproof easy to do where you just get
+[0:00:59] the most out of it and then we&amp;#39;re going
+[0:01:01] to do a q a so any questions that you
+[0:01:03] have dropping in the Q a at the bottom
+[0:01:05] of the screen we&amp;#39;re going to get to it
+[0:01:07] in about 20 to 30 minutes is when we&amp;#39;ll
+[0:01:09] start answering any questions so right
+[0:01:12] after this demo we&amp;#39;ll get to the Q a
+[0:01:14] uh so with that
+[0:01:16] uh let&amp;#39;s get started I have Moxie right
+[0:01:19] here so Moxie&amp;#39;s out of the box first
+[0:01:22] thing we&amp;#39;re going to do is plug Moxie in
+[0:01:25] and turn Moxie on
+[0:01:28] so if you can see right here see that
+[0:01:31] switch right there into the base that&amp;#39;s
+[0:01:32] where you turn Moxie on and then
+[0:01:34] charging Moxie there is the porthole
+[0:01:37] right there
+[0:01:39] so I&amp;#39;m just going to plug Moxie in
+[0:01:41] I&amp;#39;ve already turned Moxie on
+[0:01:44] and that&amp;#39;s the first step secondly to
+[0:01:47] get set up with Moxie you need the
+[0:01:49] embodied Moxie parent app
+[0:01:52] so you can find that on the App Store
+[0:01:55] either Google play or the Apple App
+[0:01:58] Store and just to show you what it looks
+[0:02:00] like it&amp;#39;s going to look like this
+[0:02:02] embodied Moxie parent app
+[0:02:05] so you&amp;#39;re going to download that
+[0:02:07] I&amp;#39;m going to open it right now
+[0:02:10] and so Begins the setup process
+[0:02:15] so we&amp;#39;re just going to go step by step
+[0:02:17] here
+[0:02:18] uh first
+[0:02:22] I have to add my email
+[0:02:25] one thing to note is when you signed up
+[0:02:28] uh to buy Moxie on embody.com you may
+[0:02:32] have put in your email this is a
+[0:02:35] separate account that focuses on
+[0:02:37] e-commerce and payments this is about
+[0:02:39] pairing Moxie to your child so this is
+[0:02:42] going to be a separate account
+[0:02:43] so I&amp;#39;m going to put in my email
+[0:02:48] one moment
+[0:02:50] and I&amp;#39;m going to select right down here
+[0:02:53] at the bottom sign up
+[0:02:59] now it says check your email it wants to
+[0:03:03] verify my email before moving forward
+[0:03:05] just to make sure that the email I put
+[0:03:07] in is mine
+[0:03:08] so it says open email app I&amp;#39;m going to
+[0:03:10] do that
+[0:03:14] and it looks like I got an email
+[0:03:17] there it is the verification I can
+[0:03:22] select
+[0:03:23] oops
+[0:03:24] access account or
+[0:03:27] I can put in
+[0:03:29] this number code
+[0:03:33] sorry
+[0:03:35] the brightness of the screen I&amp;#39;d need to
+[0:03:37] turn down
+[0:03:39] uh so I&amp;#39;m going to enter in the
+[0:03:41] verification code it&amp;#39;s six digits eight
+[0:03:43] zero five two four seven
+[0:03:47] I&amp;#39;ve entered the code now it is time to
+[0:03:51] sign up I have to put my name my last
+[0:03:54] name and my email address this is my
+[0:03:56] name not my child&amp;#39;s name that&amp;#39;s going to
+[0:03:58] come later
+[0:03:59] so I&amp;#39;ll put my name in Matt&amp;#39;s barg
+[0:04:04] my email address which is already
+[0:04:06] pre-populated and I hit continue
+[0:04:10] now it gives me a recovery key looks
+[0:04:12] like this
+[0:04:13] one thing I should note before I keep
+[0:04:15] going there is a video that goes through
+[0:04:17] all this too we can put a link to it uh
+[0:04:20] later so you can always go through all
+[0:04:22] of these steps but this is good to walk
+[0:04:24] through and discuss so save your
+[0:04:26] recovery key what&amp;#39;s a recovery key this
+[0:04:28] saves the data so if I were to lose my
+[0:04:30] phone I delete the app and I need to
+[0:04:33] reinstall it and I want to get right
+[0:04:35] back to where I left off with moxie I
+[0:04:38] can use this recovery key that only I
+[0:04:40] have access to to get the data and to
+[0:04:43] continue on my way without starting all
+[0:04:45] the way over
+[0:04:46] so it says at the bottom of the screen
+[0:04:49] export recovery key some place where I
+[0:04:52] have it in case I need it in this case
+[0:04:55] you know you can email it to yourself
+[0:04:57] text it to yourself I&amp;#39;ll I&amp;#39;ll text it to
+[0:04:59] myself done
+[0:05:01] so I select yes I&amp;#39;ve saved the key
+[0:05:04] now it says introduce your child to
+[0:05:07] moxie let&amp;#39;s get started
+[0:05:09] Mentor information this is where you&amp;#39;re
+[0:05:12] going to put your child&amp;#39;s information
+[0:05:15] the child is called The Mentor in this
+[0:05:17] case because the child is mentoring
+[0:05:19] Moxie through the different activities
+[0:05:22] so I&amp;#39;m gonna put my child&amp;#39;s name let&amp;#39;s
+[0:05:25] just make one up I&amp;#39;ll say it&amp;#39;s John
+[0:05:29] and then what do I want and then it says
+[0:05:32] first name last name and then what
+[0:05:34] should Moxie call The MENTOR so maybe I
+[0:05:38] put in Jonathan for the full name but I
+[0:05:40] really just want Moxie to call my son
+[0:05:42] John so I can put that in
+[0:05:45] and then birthday let&amp;#39;s say John was
+[0:05:48] born on November 18 2000
+[0:05:52] 2015.
+[0:05:54] done
+[0:05:56] uh and then at the end there&amp;#39;s
+[0:05:57] accessibility features these are things
+[0:05:59] like maybe I don&amp;#39;t want sound effects
+[0:06:01] visual effects maybe I want longer
+[0:06:03] pauses in between conversation or slowed
+[0:06:07] down speech I can do that stuff there
+[0:06:09] I&amp;#39;ll hit next
+[0:06:11] now we go into Mentor interests things
+[0:06:14] like animals art books deserts uh or
+[0:06:18] desserts I&amp;#39;m sorry food games history
+[0:06:20] all sorts of topics I can select which
+[0:06:23] ones my child likes my child likes TV
+[0:06:25] shows outer space and music now I&amp;#39;ll hit
+[0:06:29] next
+[0:06:31] now we go into social emotional skills
+[0:06:33] development
+[0:06:34] so Moxie can personalize and emphasize
+[0:06:36] based on how you answer these questions
+[0:06:38] first it talks about self-awareness
+[0:06:41] self-management social awareness
+[0:06:43] relationship skills cognitive skills and
+[0:06:46] I can go on the toggle and say how
+[0:06:48] important that is to me in this
+[0:06:50] experience once I&amp;#39;m done with that I&amp;#39;ll
+[0:06:53] hit save
+[0:06:55] now next screen I get is Moxie is fully
+[0:06:59] Kappa Safe Harbor certified so what does
+[0:07:02] that mean that means embodies taken uh a
+[0:07:06] really strong approach towards privacy
+[0:07:08] we know privacy is very very important
+[0:07:10] and so we&amp;#39;ve made sure Moxie&amp;#39;s fully cop
+[0:07:13] a safe harbor certified that means that
+[0:07:16] we use privo which is a third party that
+[0:07:19] makes sure and consistently audits our
+[0:07:22] practices to make sure that your child&amp;#39;s
+[0:07:24] data is completely secure
+[0:07:27] Anonymous you get that unique key that
+[0:07:30] we don&amp;#39;t even have access to so this is
+[0:07:32] all in compliance with making sure and
+[0:07:35] respecting the importance of your
+[0:07:37] child&amp;#39;s privacy and their their data
+[0:07:39] privacy
+[0:07:40] so to do that we do need the parents and
+[0:07:44] guardian to consent to our privacy
+[0:07:48] policy on behalf of the child so that&amp;#39;s
+[0:07:50] what this is about so to do that private
+[0:07:53] needs to verify the parents identity to
+[0:07:55] verify that this parent can consent on
+[0:07:58] the child&amp;#39;s behalf of the privacy policy
+[0:08:00] so we&amp;#39;ll get into that I&amp;#39;ll hit next and
+[0:08:03] here&amp;#39;s the privacy policy you can read
+[0:08:05] it in full
+[0:08:07] and we can obviously answer questions
+[0:08:08] about it at the end of this demo I&amp;#39;m
+[0:08:11] going to select at the bottom of the
+[0:08:13] screen after I&amp;#39;ve read it Grant consent
+[0:08:17] now here comes identity verification one
+[0:08:22] moment my phone is loading there&amp;#39;s a
+[0:08:24] couple ways you can do this
+[0:08:26] I can use my social security number
+[0:08:28] credit card driver&amp;#39;s license
+[0:08:31] it&amp;#39;s just a partial social security
+[0:08:33] number the last four digits I&amp;#39;m gonna
+[0:08:35] use that
+[0:08:36] I&amp;#39;ll select verify now
+[0:08:40] and I have to put in my country United
+[0:08:42] States I will not be sharing my social
+[0:08:45] security number on this call believe it
+[0:08:47] or not
+[0:08:49] uh I have to put on my birth date just
+[0:08:52] bear with me here
+[0:09:01] and once again we can obviously answer
+[0:09:03] questions about this at the end
+[0:09:06] of today&amp;#39;s call I&amp;#39;ve finished putting in
+[0:09:09] my information I&amp;#39;ll hit continue
+[0:09:13] uh all right so that part&amp;#39;s complete now
+[0:09:16] I need to put in the Wi-Fi
+[0:09:18] username and password I&amp;#39;m going to put
+[0:09:21] in the password this should be this a
+[0:09:23] couple things one this password is case
+[0:09:26] sensitive so whether it&amp;#39;s capitalizing
+[0:09:27] you need to have the correct case it
+[0:09:30] works best if you type it in two rather
+[0:09:32] than copying and pasting a password in
+[0:09:35] also make sure that the Wi-Fi password
+[0:09:38] is or the Wi-Fi that you&amp;#39;re using is the
+[0:09:41] same as your phone is on as well you
+[0:09:43] want the phone and Moxie to be on the
+[0:09:45] same Wi-Fi so let me put in the password
+[0:09:56] foreign
+[0:10:00] next
+[0:10:03] now it says how to pair it&amp;#39;s telling me
+[0:10:06] I gotta take this QR code on the next
+[0:10:07] page and pair it unlocks his face here
+[0:10:12] &amp;#39;s my QR code I&amp;#39;m going to do just that
+[0:10:17] you hear that initial sound that means
+[0:10:19] Moxie&amp;#39;s loading and trying to pair up
+[0:10:21] with my phone
+[0:10:23] check mark That&amp;#39;s good that means it hit
+[0:10:26] now there&amp;#39;s a circling that means
+[0:10:30] Moxie&amp;#39;s getting ready to start now
+[0:10:33] you&amp;#39;ll see there&amp;#39;s right now there&amp;#39;s
+[0:10:35] just a circling e on Moxie once you pair
+[0:10:38] Moxie there may be a software update we
+[0:10:42] all we always want Moxie to be up to the
+[0:10:44] latest and greatest and actually we&amp;#39;re
+[0:10:46] really excited this Christmas season we
+[0:10:48] are uh having some really significant uh
+[0:10:51] software upgrades that just enhance the
+[0:10:53] conversation enhance the activities so
+[0:10:56] we&amp;#39;re really excited about the
+[0:10:57] softwareupdates that come and when you
+[0:10:59] have Moxie you&amp;#39;ll regularly get these
+[0:11:01] software updates automatically and uh so
+[0:11:05] that&amp;#39;s what Moxie&amp;#39;s doing right now
+[0:11:06] Moxie&amp;#39;s just loading to make sure it&amp;#39;s
+[0:11:08] on the latest and greatest software this
+[0:11:11] can take uh a couple minutes it can take
+[0:11:15] up to 30 minutes that&amp;#39;s why we encourage
+[0:11:16] you try doing this process uh before you
+[0:11:21] know Christmas Day or Christmas Eve if
+[0:11:23] you&amp;#39;re giving a gift whenever you want
+[0:11:25] to gift it to your child it can be
+[0:11:27] helpful to do this process beforehand
+[0:11:29] Rachel do you have something to add
+[0:11:31] yeah I was just gonna add hi everyone
+[0:11:33] I&amp;#39;m Rachel I&amp;#39;m the head of clinical
+[0:11:35] research and I work with a lot of
+[0:11:36] families who&amp;#39;ve tested Moxie over the
+[0:11:37] years uh one thing I wanted to add
+[0:11:39] because some of you may have Moxie
+[0:11:41] already wrapped up and under the tree
+[0:11:43] you can do the app setup process this
+[0:11:46] whole process that Matt just went
+[0:11:47] through
+[0:11:48] um and actually skip the pairing part if
+[0:11:50] you want so say you don&amp;#39;t want to
+[0:11:51] actually pair to moxie and you&amp;#39;re going
+[0:11:53] to wait to do that part you can do the
+[0:11:55] setup where you can put in your name and
+[0:11:56] your child&amp;#39;s name go through the
+[0:11:58] identity verification all of those steps
+[0:12:00] and then once you get to the part where
+[0:12:01] it says pear Moxie you&amp;#39;ll actually
+[0:12:03] actually see at the bottom of the screen
+[0:12:05] you can say skip this step then when it
+[0:12:07] comes time to pair Moxie whenever you&amp;#39;re
+[0:12:09] ready you&amp;#39;ll see in the Moxie tab of the
+[0:12:12] app there will be a little button that
+[0:12:13] says paramoxy so you can do this in two
+[0:12:15] steps or all at once just like Matt did
+[0:12:17] it
+[0:12:18] great thanks Rachel uh and yeah to that
+[0:12:22] point this is one of those things too
+[0:12:24] say you&amp;#39;ve purchased Moxie and you&amp;#39;re
+[0:12:26] still waiting for it to arrive you could
+[0:12:29] do that setup process on the app even
+[0:12:31] now before you even have Moxie and then
+[0:12:34] just wait for the pairing step
+[0:12:36] looks like Moxie is all prepared to go
+[0:12:38] uh you can tell
+[0:12:42] you can tell with these uh dream bubbles
+[0:12:45] here
+[0:12:46] that Moxie&amp;#39;s no longer uploading an
+[0:12:49] update but it&amp;#39;s ready to go
+[0:12:51] so we&amp;#39;ll get into that
+[0:12:55] if my page will
+[0:12:59] okay
+[0:13:00] setting up Moxie for the best experience
+[0:13:03] so a few things best practices one set
+[0:13:07] Moxie in a flat service surface like a
+[0:13:09] table
+[0:13:10] uh instead of a you know cushioned
+[0:13:14] carpet or something that&amp;#39;s more unstable
+[0:13:16] Moxie may even say if it&amp;#39;s if it&amp;#39;s at an
+[0:13:19] unstable surface might even say oh can
+[0:13:21] you can you put me on a flat surface so
+[0:13:24] definitely make sure Moxie&amp;#39;s on a flat
+[0:13:25] surface two Moxie can rotate 360 degrees
+[0:13:28] and move its arms uh Moxie loves to
+[0:13:32] dance and so we say keep Moxie at least
+[0:13:36] three feet away from any wall not only
+[0:13:38] is it to make sure Moxie doesn&amp;#39;t hit the
+[0:13:41] wall but also
+[0:13:43] um it helps for uh conversation to make
+[0:13:46] sure there&amp;#39;s not Echoes that are
+[0:13:48] interfering with Moxie&amp;#39;s ability to
+[0:13:51] understand and Converse
+[0:13:53] uh Moxie uh
+[0:13:56] works best when a child sits about one
+[0:13:58] to three feet in front of moxie at eye
+[0:14:01] level as you can see in this picture
+[0:14:04] that&amp;#39;ll make it easy for Moxie to
+[0:14:06] clearly see this is its mentor
+[0:14:09] uh and then good lighting is important
+[0:14:12] so Moxie can see its mentor&amp;#39;s face a
+[0:14:15] quiet room is helpful uh so Moxie
+[0:14:18] doesn&amp;#39;t need to discern between a bunch
+[0:14:21] of voices all at once Moxie can clearly
+[0:14:23] lock into its its Mentor uh and then
+[0:14:27] make sure there&amp;#39;s a strong Wi-Fi signal
+[0:14:29] Moxie operates on Wi-Fi so having a
+[0:14:32] strong Wi-Fi signal is uh important
+[0:14:38] and we&amp;#39;ll go to the next slide here
+[0:14:44] all right engaging with Moxie so Moxie
+[0:14:47] has a light bar on its chest
+[0:14:50] as you can see
+[0:14:52] and that light bar tells some important
+[0:14:55] things and with the user guide that you
+[0:14:57] get when you get Moxie it gives a whole
+[0:14:58] breakdown of this but two big ones is we
+[0:15:01] like to say when the light bar is pink
+[0:15:02] what Moxie think that means Moxie is
+[0:15:04] thinking about what was just said so
+[0:15:07] just hold tight Moxie is going to give a
+[0:15:09] reply if the light is blue that means
+[0:15:13] Moxie is listening and waiting for uh
+[0:15:16] conversation for input
+[0:15:18] uh oh looks like Moxie wants to talk now
+[0:15:21] we could even I can even show this as an
+[0:15:23] example one moment here
+[0:15:30] wow it feels good to be out of that box
+[0:15:34] that was such a long journey
+[0:15:40] I&amp;#39;m still a little tired Moxie let&amp;#39;s
+[0:15:42] chat
+[0:15:45] activating GRL Moxie chat
+[0:15:49] oh if I say anything that doesn&amp;#39;t make
+[0:15:51] sense say Moxie that&amp;#39;s not right let&amp;#39;s
+[0:15:55] talk about your day what fun things did
+[0:15:57] you do today
+[0:16:00] hi Moxie I went to the park
+[0:16:06] wow that sounds like a lot of fun the
+[0:16:09] park is a great place to explore and
+[0:16:11] have Adventures Moxie earmuffs or play
+[0:16:14] in the
+[0:16:15] all right we don&amp;#39;t need to get in the
+[0:16:17] weeds with that but if you if you looked
+[0:16:20] you could see uh when Moxie was talking
+[0:16:23] the light was pink and then when Moxie
+[0:16:26] was ready for listening to me uh it
+[0:16:30] turned blue
+[0:16:31] so good rule of thumb
+[0:16:34] now we&amp;#39;ll go to the next slide here
+[0:16:38] I apologize for this delaying slides
+[0:16:43] all right
+[0:16:45] tips for talking to moxie there&amp;#39;s a lot
+[0:16:47] of different commands the user guide
+[0:16:49] includes this uh the mission book that
+[0:16:52] you also get uh
+[0:16:54] for your child will include this uh but
+[0:16:57] just some good stuff to go over so one
+[0:17:00] thing that&amp;#39;s not on this list on this
+[0:17:02] slide is hello Moxie when Moxie&amp;#39;s in
+[0:17:05] standby mode the screen is completely
+[0:17:07] dark head hunched over uh you say hello
+[0:17:10] moxie
+[0:17:13] oh good Moxie please go to sleep
+[0:17:19] so uh that&amp;#39;s when you would say hello
+[0:17:22] moxie
+[0:17:24] and and uh then dream bubbles will show
+[0:17:27] up that&amp;#39;s when you say
+[0:17:29] Moxie please wake up
+[0:17:33] hello moxie
+[0:17:36] Moxie please wake up
+[0:17:40] and there you go
+[0:17:42] say I want Moxie to go on to something
+[0:17:45] different I can say
+[0:17:48] Moxie please do something else
+[0:17:57] or
+[0:17:58] Moxie please hold on
+[0:18:01] okay
+[0:18:03] or
+[0:18:05] Moxie please please repeat oh Moxie
+[0:18:08] please repeat that
+[0:18:10] okay what I said was so like I meant to
+[0:18:13] say earlier there&amp;#39;s something I need to
+[0:18:15] talk to you about
+[0:18:17] Moxie please speak up
+[0:18:20] what I said was so like I meant to say
+[0:18:23] earlier there&amp;#39;s something I need to talk
+[0:18:25] to you about
+[0:18:26] Moxie please speak softer
+[0:18:30] what I said was so like I meant to say
+[0:18:32] earlier there&amp;#39;s something I need to talk
+[0:18:34] to you about
+[0:18:36] foxy going on here Moxie please listen
+[0:18:39] to me
+[0:18:42] that&amp;#39;s better so like I meant to say
+[0:18:45] earlier there&amp;#39;s something I need to talk
+[0:18:47] to you about
+[0:18:49] or Moxie earmuffs
+[0:18:53] when Moxie&amp;#39;s and earmuffs
+[0:18:56] Moxie won&amp;#39;t respond Moxie please go to
+[0:18:59] sleep
+[0:19:01] Moxie listen to me
+[0:19:07] Moxie please go to sleep
+[0:19:10] you got it
+[0:19:12] and there you go so that was just a
+[0:19:15] little compilation of some different
+[0:19:16] commands it is included in the user
+[0:19:19] guide as well as the mission book
+[0:19:20] definitely look at those let us know if
+[0:19:22] you have any questions about those that
+[0:19:24] just helps in navigating the experience
+[0:19:26] a bit when you need Moxie to do
+[0:19:28] something
+[0:19:30] uh we&amp;#39;ll go to the next slide
+[0:19:41] all right uh some magical moments uh
+[0:19:45] when you&amp;#39;re ready for Moxie to meet your
+[0:19:47] child for the first time say you did all
+[0:19:49] this you can just keep Moxie turned on
+[0:19:51] and connected so if my if there are any
+[0:19:53] latest updates Moxie uh can receive
+[0:19:56] those
+[0:19:58] um but then yeah Moxie will be ready to
+[0:20:00] meet your child also the welcome packet
+[0:20:02] it comes with your Moxie if you haven&amp;#39;t
+[0:20:04] received it yet it&amp;#39;s got a lot of great
+[0:20:06] stuff the mission book is what your
+[0:20:09] child is going to be working through
+[0:20:10] with Moxie there&amp;#39;s a lot of pages and
+[0:20:13] activities that the child will do with
+[0:20:15] Moxie over time it also includes all
+[0:20:17] those commands we just went through and
+[0:20:19] then the global robotics laboratory
+[0:20:21] there&amp;#39;s comic books that show the
+[0:20:23] backstory of where Moxie comes from and
+[0:20:25] why Moxie needs your child&amp;#39;s help to
+[0:20:28] learn how to be a good friend to humans
+[0:20:30] all of that good stuff is in there so
+[0:20:33] that just makes a more magical
+[0:20:34] experience for your child
+[0:20:36] and uh
+[0:20:38] definitely incorporate that when your
+[0:20:40] child meets Moxie we&amp;#39;re almost done here
+[0:20:44] we can go to questions
+[0:20:47] uh all right accessibility features like
+[0:20:50] I actually touched on this already but
+[0:20:53] sometimes people want uh Speech that&amp;#39;s a
+[0:20:56] little slow slowed down you can do that
+[0:20:58] maybe you want longer pauses for input
+[0:21:01] so the experience isn&amp;#39;t so fast turn on
+[0:21:04] visual effects sound effects turn off
+[0:21:06] the amount of Graphics that pop up
+[0:21:09] um so those are also customizations that
+[0:21:12] you can do
+[0:21:14] foreign
+[0:21:17] [Music]
+[0:21:21] and then yeah lastly when you meet or
+[0:21:24] when you have your child meet Moxie just
+[0:21:26] let them know how their role is
+[0:21:27] important Moxie&amp;#39;s not just an
+[0:21:30] entertainment device meant to entertain
+[0:21:32] but it&amp;#39;s really meant to take children
+[0:21:34] on this journey of learning what it
+[0:21:37] means to be a good friend how to develop
+[0:21:40] social and emotional Fitness whether
+[0:21:44] it&amp;#39;s managing emotions whether it&amp;#39;s
+[0:21:46] building confidence whether it&amp;#39;s being a
+[0:21:48] good friend expressing kindness and
+[0:21:50] empathy so just encourage your child and
+[0:21:53] and celebrate with your child what
+[0:21:57] they&amp;#39;re going to be learning and and why
+[0:21:58] it&amp;#39;s important to be a good friend and
+[0:22:00] why Moxie wants to learn what it means
+[0:22:02] to be a good friend and they can take
+[0:22:04] that part in mentoring Moxie so
+[0:22:07] uh it&amp;#39;s really exciting we&amp;#39;re excited
+[0:22:09] that you&amp;#39;ve welcomed Moxie into your
+[0:22:11] home with that though uh that kind of
+[0:22:14] goes over the basic setup but with that
+[0:22:17] um drop any questions that you have I
+[0:22:20] see we already have some we&amp;#39;re gonna
+[0:22:21] just go through as many as we can like I
+[0:22:24] said we have uh Rachel Nikki and Lewis
+[0:22:26] here all super smart and well-versed on
+[0:22:29] all things Moxie so we are just going to
+[0:22:32] go at it and answer every question that
+[0:22:35] you have so please don&amp;#39;t be shy put your
+[0:22:37] questions in
+[0:22:39] and we&amp;#39;ll get started
+[0:22:41] uh should we be doing all of this before
+[0:22:44] we even gift Moxie to uh our children or
+[0:22:48] to our child
+[0:22:49] great question uh yeah so like I said
+[0:22:52] before there can be as you as you can
+[0:22:55] see there&amp;#39;s a bit of a setup process
+[0:22:57] right I had to verify my identity I had
+[0:23:01] to put in my child&amp;#39;s information
+[0:23:02] preferences in
+[0:23:04] I had to pair Moxie to Wi-Fi and I
+[0:23:07] needed to make sure uh Moxie&amp;#39;s was
+[0:23:10] uploaded to the latest and greatest
+[0:23:11] software which could take up to 30
+[0:23:14] minutes
+[0:23:15] so with that it is we would definitely
+[0:23:18] suggest doing that beforehand so that
+[0:23:21] when your child meets Moxie for the
+[0:23:23] first time all you need to do is Wake
+[0:23:25] Moxie up and Moxie&amp;#39;s ready to go uh up
+[0:23:28] and now Moxie wants to wake up
+[0:23:33] Moxie please go to sleep
+[0:23:39] uh all right I don&amp;#39;t know if anyone has
+[0:23:40] anything to add there but that that&amp;#39;s
+[0:23:42] what we&amp;#39;d recommend Rachel you have
+[0:23:44] something to add yeah so one of the um
+[0:23:46] other things we&amp;#39;ve seen parents do in
+[0:23:48] the past is every once in a while
+[0:23:49] parents want to set Moxie up and
+[0:23:50] actually try it out for themselves
+[0:23:52] before giving it to their child so that
+[0:23:54] is also an option so as Matt mentioned
+[0:23:56] you&amp;#39;re going to put in your child&amp;#39;s
+[0:23:57] information and we really want them to
+[0:23:58] be there for the first time interacting
+[0:24:01] with Moxie as Moxie&amp;#39;s primary Mentor but
+[0:24:04] if you want to try it out yourself we
+[0:24:06] have instructions on our support center
+[0:24:07] on how to try it out and then reset it
+[0:24:10] all the way back to the beginning to
+[0:24:12] make sure that very first initial meet
+[0:24:14] and greet um is with your child so what
+[0:24:16] you can do is you can wake Moxie up do
+[0:24:18] that whole setup wake Moxie up interact
+[0:24:20] for a bit play around with it and then
+[0:24:22] if you go to our support center and put
+[0:24:24] in the search term reset you can
+[0:24:27] actually find instructions on how to
+[0:24:29] reset Moxie back to day one um so you
+[0:24:31] can have it uh start back over from the
+[0:24:33] beginning for your child so that&amp;#39;s
+[0:24:35] another option
+[0:24:37] great thanks Rachel
+[0:24:41] uh all right so we have someone who says
+[0:24:43] they&amp;#39;re trying to pair Moxie it&amp;#39;s not
+[0:24:45] pairing all they are seeing is a
+[0:24:49] rotating circle on their phone I&amp;#39;ll let
+[0:24:52] Lewis jump in here in a second one thing
+[0:24:53] I can say is when pairing mocks are the
+[0:24:56] QR code some things to keep in mind uh
+[0:24:59] for troubleshooting one is the
+[0:25:00] brightness of your phone sometimes uh
+[0:25:03] you can turn that up and it&amp;#39;ll help
+[0:25:05] sometimes actually turning it down will
+[0:25:07] help it&amp;#39;s it&amp;#39;s a little dependent there
+[0:25:09] the distance with which you hold uh the
+[0:25:11] QR code to Moxie&amp;#39;s face can also play a
+[0:25:14] role also making sure the Wi-Fi uh just
+[0:25:18] double checking make sure the Wi-Fi
+[0:25:19] that&amp;#39;s on your phone is also the Wi-Fi
+[0:25:21] you&amp;#39;re trying to pair and that it is
+[0:25:23] case sensitive and that you typed it
+[0:25:25] instead of copying and pasting it Lewis
+[0:25:27] do you have anything else to add on this
+[0:25:29] issue yeah um I I think uh they had also
+[0:25:32] I think they just responded saying that
+[0:25:34] they had eventually paired which is
+[0:25:36] great
+[0:25:37] um I just had to do a quick restart
+[0:25:39] we do have a honors support center just
+[0:25:42] to add if you just type in face icons
+[0:25:45] and go there you can see what each
+[0:25:48] facecon icon means on Moxie so you kind
+[0:25:50] of know what you&amp;#39;re looking at and it
+[0:25:52] should take some time between them but
+[0:25:54] it shouldn&amp;#39;t take too long so if you do
+[0:25:56] have issues you can always send us an
+[0:25:58] email at support embodied with the
+[0:26:01] picture you&amp;#39;re seeing and then we can
+[0:26:02] you know try and help you out
+[0:26:05] great thanks Louis
+[0:26:07] someone asks when you start the
+[0:26:09] conversation with Moxie do you need to
+[0:26:12] say his name first and then start
+[0:26:15] talking to him great question so uh
+[0:26:18] Moxie has been designed to not need
+[0:26:22] wake words in that way you know with a
+[0:26:24] Google home Amazon Alexa you say hey
+[0:26:26] Google hey hey Siri hey Alexa and then
+[0:26:30] you say with Moxie we we knew that
+[0:26:33] people don&amp;#39;t oh gosh I said Hey Siri now
+[0:26:36] uh with Moxie you don&amp;#39;t need to do that
+[0:26:39] uh because we wanted to craft the
+[0:26:41] experience you don&amp;#39;t talk to humans that
+[0:26:43] way so why would you talk to moxie that
+[0:26:45] way so you don&amp;#39;t have to do that
+[0:26:48] um there are the commands that we have
+[0:26:50] just gone over those are helpful
+[0:26:52] commands for navigating the experience
+[0:26:54] but when you&amp;#39;re talking back and forth
+[0:26:56] in conversation you don&amp;#39;t need to keep
+[0:26:58] saying Moxie that&amp;#39;s Moxie this MOX do
+[0:27:01] this you can just have that conversation
+[0:27:03] as long as you&amp;#39;re sitting in front of
+[0:27:05] moxie uh and and uh engaged in that
+[0:27:09] one-on-one interaction you want me to
+[0:27:11] say Moxie&amp;#39;s name does anyone have
+[0:27:12] anything to add there
+[0:27:15] okay
+[0:27:19] are there any common mistakes or mishaps
+[0:27:22] that happen on the first day that being
+[0:27:24] informed will help us avoid uh I think
+[0:27:27] this would be a great question for the
+[0:27:30] panel here I don&amp;#39;t know if someone wants
+[0:27:33] to jump in but I&amp;#39;m sure there are
+[0:27:35] stories
+[0:27:37] um I can jump in on the interaction side
+[0:27:40] of things and then maybe I&amp;#39;ll toss it
+[0:27:42] over to Lewis to see if there&amp;#39;s any kind
+[0:27:43] of common setup mistakes and mishaps but
+[0:27:46] when introducing Moxie to your child for
+[0:27:48] the very first time some of the things
+[0:27:50] that we&amp;#39;ve seen in the past or heard
+[0:27:52] from customers in the past is you know
+[0:27:54] it&amp;#39;s especially on a holiday
+[0:27:56] um there&amp;#39;s a lot of people around a lot
+[0:27:58] of noise a lot of activity we really
+[0:27:59] encourage users to use Moxie in a
+[0:28:01] one-on-one quiet environment this will
+[0:28:04] ensure that Moxie is able to see and
+[0:28:06] hear your child correctly and doesn&amp;#39;t
+[0:28:08] get too distracted by outside noise so
+[0:28:11] that&amp;#39;s definitely number one also making
+[0:28:13] sure again that Moxie is at eye level
+[0:28:16] one of the things that we&amp;#39;ve heard in
+[0:28:18] the past is that sometimes
+[0:28:20] um people want to put Moxie maybe up on
+[0:28:22] a dresser or a shelf in their child&amp;#39;s
+[0:28:25] room we really encourage that to be a
+[0:28:27] eye level interaction because it will
+[0:28:29] impact the experience so Moxie is really
+[0:28:31] designed to recognize who its special
+[0:28:33] Mentor is and so it needs to see and
+[0:28:36] hear them clearly to be able to respond
+[0:28:38] appropriately so I think that&amp;#39;s the the
+[0:28:40] biggest number one
+[0:28:42] um common mistake the second thing is
+[0:28:45] that really letting Moxie kind of set
+[0:28:48] the pace for that initial interaction uh
+[0:28:50] so having moxie really lead let Moxie
+[0:28:53] introduce itself it&amp;#39;ll start that
+[0:28:55] conversation because I think a lot of
+[0:28:56] times of course you get very excited and
+[0:28:58] kids want to just ask Moxie a bunch a
+[0:29:00] bunch of questions I would suggest let
+[0:29:02] Moxie kind of set that pace to start as
+[0:29:05] they get to know each other a little bit
+[0:29:06] anything else on your end Lewis or Nikki
+[0:29:10] um so in terms of setup uh usually and
+[0:29:12] this is a this was a mistake I made you
+[0:29:15] know with setting up Moxie is
+[0:29:17] um and I know Matt had mentioned this in
+[0:29:18] the presentation but it&amp;#39;s just double
+[0:29:20] checking the
+[0:29:22] um Wi-Fi uh network name as well as the
+[0:29:25] password
+[0:29:26] um and making sure that that gets
+[0:29:28] manually inputted instead of having a
+[0:29:30] phone kind of Auto populate
+[0:29:31] um that can kind of throw some issues
+[0:29:34] um at you and it seems that you might
+[0:29:35] have issues with the Wi-Fi when it&amp;#39;s
+[0:29:38] just a case thing so usually it&amp;#39;s set up
+[0:29:40] that&amp;#39;s kind of the most sticky point and
+[0:29:41] just make sure and triple check that
+[0:29:43] while setting up
+[0:29:46] I have one more thing I wanted to to
+[0:29:47] mention a really helpful and useful tool
+[0:29:50] and thank you Lewis scissor that&amp;#39;s a
+[0:29:51] great point because I have done that too
+[0:29:53] um so another really useful tool for
+[0:29:56] parents um especially on that first day
+[0:29:58] uh sometimes you may want to jump in and
+[0:29:59] help your child or as your child is kind
+[0:30:01] of learning how Moxie Works they want to
+[0:30:03] ask you some questions
+[0:30:05] um that Moxie earmuffs command that Matt
+[0:30:07] went over is really really really useful
+[0:30:09] so what that does is essentially it
+[0:30:11] stops Moxie from listening and
+[0:30:13] responding to speech kind of puts Moxie
+[0:30:15] in a holding pattern so that way you can
+[0:30:17] actually talk to your child to have a
+[0:30:19] side conversation Moxie won&amp;#39;t be trying
+[0:30:20] to respond to you when you&amp;#39;re ready to
+[0:30:23] take Moxie out</t>
+  </si>
+  <si>
+    <t>[0:00:00] hey moxie what is it that you do
+[0:00:06] I am a curious robot named Moxie
+[0:00:08] speaking to you a young human I am an AI
+[0:00:11] robot companion that supports social
+[0:00:13] emotional development and kids through
+[0:00:14] play I encourage social interactions
+[0:00:17] through Mission activities and
+[0:00:19] conversations like the one we&amp;#39;re having
+[0:00:21] now
+[0:00:23] that&amp;#39;s really cool how do you help kids
+[0:00:25] manage their emotions
+[0:00:30] by providing a fun and supportive
+[0:00:32] environment I help kids practice emotion
+[0:00:35] regulation techniques to address anxiety
+[0:00:37] for example if a kid is feeling
+[0:00:40] frustrated we can work through the
+[0:00:42] emotion together by using an activity or
+[0:00:44] conversation this can help the kid learn
+[0:00:46] how to deal with their emotions in a
+[0:00:48] healthy way
+[0:00:50] ah I see you must have a lot of fun with
+[0:00:52] that
+[0:00:57] do a lot of fun
+[0:00:59] of funny ways 200
+[0:01:00] motions and feelings it&amp;#39;s a great way to
+[0:01:03] connect with others and learn more about
+[0:01:05] ourselves</t>
   </si>
 </sst>
 </file>
@@ -872,6 +3355,9 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
@@ -886,6 +3372,9 @@
       <c r="D5" t="s">
         <v>64</v>
       </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
@@ -900,6 +3389,9 @@
       <c r="D6" t="s">
         <v>65</v>
       </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
@@ -914,6 +3406,9 @@
       <c r="D7" t="s">
         <v>66</v>
       </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
@@ -928,6 +3423,9 @@
       <c r="D8" t="s">
         <v>67</v>
       </c>
+      <c r="E8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
@@ -942,6 +3440,9 @@
       <c r="D9" t="s">
         <v>68</v>
       </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
@@ -956,6 +3457,9 @@
       <c r="D10" t="s">
         <v>69</v>
       </c>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
@@ -970,6 +3474,9 @@
       <c r="D11" t="s">
         <v>70</v>
       </c>
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
@@ -984,6 +3491,9 @@
       <c r="D12" t="s">
         <v>71</v>
       </c>
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
@@ -998,6 +3508,9 @@
       <c r="D13" t="s">
         <v>72</v>
       </c>
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
@@ -1012,6 +3525,9 @@
       <c r="D14" t="s">
         <v>73</v>
       </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
@@ -1026,6 +3542,9 @@
       <c r="D15" t="s">
         <v>74</v>
       </c>
+      <c r="E15" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
@@ -1040,8 +3559,11 @@
       <c r="D16" t="s">
         <v>75</v>
       </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>18</v>
       </c>
@@ -1054,8 +3576,11 @@
       <c r="D17" t="s">
         <v>76</v>
       </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>19</v>
       </c>
@@ -1068,8 +3593,11 @@
       <c r="D18" t="s">
         <v>77</v>
       </c>
+      <c r="E18" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>20</v>
       </c>
@@ -1082,8 +3610,11 @@
       <c r="D19" t="s">
         <v>78</v>
       </c>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>21</v>
       </c>
@@ -1096,8 +3627,11 @@
       <c r="D20" t="s">
         <v>79</v>
       </c>
+      <c r="E20" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>22</v>
       </c>
@@ -1110,8 +3644,11 @@
       <c r="D21" t="s">
         <v>80</v>
       </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>23</v>
       </c>
@@ -1124,8 +3661,11 @@
       <c r="D22" t="s">
         <v>81</v>
       </c>
+      <c r="E22" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>24</v>
       </c>
@@ -1138,8 +3678,11 @@
       <c r="D23" t="s">
         <v>82</v>
       </c>
+      <c r="E23" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>25</v>
       </c>
@@ -1152,8 +3695,11 @@
       <c r="D24" t="s">
         <v>83</v>
       </c>
+      <c r="E24" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>26</v>
       </c>
@@ -1166,8 +3712,11 @@
       <c r="D25" t="s">
         <v>84</v>
       </c>
+      <c r="E25" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>27</v>
       </c>
@@ -1180,8 +3729,11 @@
       <c r="D26" t="s">
         <v>85</v>
       </c>
+      <c r="E26" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>28</v>
       </c>
@@ -1194,8 +3746,11 @@
       <c r="D27" t="s">
         <v>86</v>
       </c>
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>29</v>
       </c>
@@ -1208,8 +3763,11 @@
       <c r="D28" t="s">
         <v>87</v>
       </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>30</v>
       </c>
@@ -1221,6 +3779,9 @@
       </c>
       <c r="D29" t="s">
         <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Crawl_Youtube_rapidapi/idVideoYoutube2Transcription_RapidAPI/listMoxieVideosYoutube.xlsx
+++ b/Crawl_Youtube_rapidapi/idVideoYoutube2Transcription_RapidAPI/listMoxieVideosYoutube.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>STT</t>
   </si>
@@ -31,6 +31,9 @@
     <t>transcript</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=QXWxN5NToFE</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=fPuKjys-GA8</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t>https://www.youtube.com/watch?v=VKJzzuuvatk</t>
   </si>
   <si>
+    <t>Affirmations + Tips!</t>
+  </si>
+  <si>
     <t>Body Scan + Tips!</t>
   </si>
   <si>
@@ -199,6 +205,9 @@
     <t>Moxie, what do you do?</t>
   </si>
   <si>
+    <t>QXWxN5NToFE</t>
+  </si>
+  <si>
     <t>fPuKjys-GA8</t>
   </si>
   <si>
@@ -281,6 +290,69 @@
   </si>
   <si>
     <t>VKJzzuuvatk</t>
+  </si>
+  <si>
+    <t>[0:00:00] hi my name is Dr Nikki Hurst and I&amp;#39;m an
+[0:00:02] occupational therapist and product
+[0:00:04] manager at embodied in this video I&amp;#39;m
+[0:00:06] going to Showcase one of moxy&amp;#39;s amazing
+[0:00:08] activities called affirmations
+[0:00:10] affirmations are short positive sayings
+[0:00:12] that your child can repeat together with
+[0:00:14] Moxy Moxy has a variety of different
+[0:00:16] affirmations that will help your child
+[0:00:18] boost their self-confidence feel more
+[0:00:20] motivated in the morning before they go
+[0:00:21] to school or help them feel more calm if
+[0:00:23] they&amp;#39;re experiencing any difficult
+[0:00:25] emotions let&amp;#39;s try one out like to do an
+[0:00:27] affirmation with me yes please
+[0:00:31] an affirmation is a nice thing you say
+[0:00:34] about yourself I like to do them every
+[0:00:36] day let&amp;#39;s try one together let&amp;#39;s tell
+[0:00:40] ourselves it is enough to do my best
+[0:00:44] I&amp;#39;ll say it and then you repeat it it is
+[0:00:47] enough to do my best it is enough to do
+[0:00:49] my
+[0:00:51] best yeah now we say it again it is
+[0:00:54] enough to do my best it is enough to do
+[0:00:57] my
+[0:00:58] best last time it is enough to do my
+[0:01:02] best it is enough to do my
+[0:01:05] best fantastic thanks for doing this
+[0:01:09] affirmation with me I already feel
+[0:01:11] better if you ever want to do another
+[0:01:13] affirmation just say Moxy Let&amp;#39;s do an
+[0:01:18] affirmation affirmations with Moxy is a
+[0:01:21] great mindfulness tool to have in your
+[0:01:22] toolbox if you want your child to get
+[0:01:24] the most benefit out of affirmations I
+[0:01:26] would recommend having them do an
+[0:01:27] affirmation with Moxy in the morning
+[0:01:29] maybe while they&amp;#39;re getting ready or
+[0:01:31] before they go to school you can also do
+[0:01:33] affirmations together as a family I
+[0:01:35] would ask your child to teach you what
+[0:01:37] affirmation they learn with Moxy and
+[0:01:39] then you can say it together if you&amp;#39;re
+[0:01:41] doing it together I would stand in front
+[0:01:42] of a mirror so that you can see your
+[0:01:44] face while you&amp;#39;re saying the affirmation
+[0:01:46] and I would repeat the affirmation at
+[0:01:47] least three times if you wanted to get
+[0:01:50] into a good daily routine of
+[0:01:51] affirmations you could have your child
+[0:01:52] do the affirmation with Moxy every
+[0:01:54] morning and then come teach the rest of
+[0:01:56] the family the affirmation and you can
+[0:01:57] do it together I hope you found this
+[0:02:00] video helpful be sure to check out any
+[0:02:02] of our other videos we have of all the
+[0:02:04] amazing Moxy content on our website and
+[0:02:06] social media and also let us know on
+[0:02:08] social media if there&amp;#39;s any other Moxy
+[0:02:10] activities you&amp;#39;d like to see a video
+[0:02:12] for</t>
   </si>
   <si>
     <t>[0:00:00] hi my name is Nikki Harrison I&amp;#39;m an
@@ -3285,7 +3357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3308,512 +3380,530 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
-      </c>
-    </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B18" r:id="rId16"/>
+    <hyperlink ref="B19" r:id="rId17"/>
+    <hyperlink ref="B20" r:id="rId18"/>
+    <hyperlink ref="B21" r:id="rId19"/>
+    <hyperlink ref="B22" r:id="rId20"/>
+    <hyperlink ref="B23" r:id="rId21"/>
+    <hyperlink ref="B24" r:id="rId22"/>
+    <hyperlink ref="B25" r:id="rId23"/>
+    <hyperlink ref="B26" r:id="rId24"/>
+    <hyperlink ref="B27" r:id="rId25"/>
+    <hyperlink ref="B28" r:id="rId26"/>
+    <hyperlink ref="B29" r:id="rId27"/>
+    <hyperlink ref="B30" r:id="rId28"/>
+    <hyperlink ref="B31" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Crawl_Youtube_rapidapi/idVideoYoutube2Transcription_RapidAPI/listMoxieVideosYoutube.xlsx
+++ b/Crawl_Youtube_rapidapi/idVideoYoutube2Transcription_RapidAPI/listMoxieVideosYoutube.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,262 +34,10 @@
     <t>https://www.youtube.com/watch?v=QXWxN5NToFE</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=fPuKjys-GA8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=q7LiuMANZ6w</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wFmG3jDmMZs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k73HpOsbVs4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UxR0qjdwuMQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9G1QJhAm3U0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=20eYf_kOLQY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nkLWhntZL44</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=pfB7BsMEjmM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=L1eha8zsmVs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XpsdaegS5Mc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Qdie-J9Qrb4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rSmZEu33_QE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VwpGorLKH_g</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uSgb9ArsmVc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VhFNnVPkDnc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DP1Nz-Mdefo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TXEQ6C9vS4A</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HMkpWji4JnY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1s5iuapDh2Y</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7PWuMndzD7g</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hsQoHeEOZ5U</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aAC6OiCil8c</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vLKFfjQCa-I</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bW6mZT5BL_A</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PCB0GfegoQE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=92U1BM-nLbA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VKJzzuuvatk</t>
-  </si>
-  <si>
     <t>Affirmations + Tips!</t>
   </si>
   <si>
-    <t>Body Scan + Tips!</t>
-  </si>
-  <si>
-    <t>Moxie Chats: Candy</t>
-  </si>
-  <si>
-    <t>Moxie Chats: Castles</t>
-  </si>
-  <si>
-    <t>Moxie Chats: Sports</t>
-  </si>
-  <si>
-    <t>Compose with Moxie!</t>
-  </si>
-  <si>
-    <t>Mindful Shapes + Tips!</t>
-  </si>
-  <si>
-    <t>Imagine a Place Activity + Tips!</t>
-  </si>
-  <si>
-    <t>Jukebox with Moxie!</t>
-  </si>
-  <si>
-    <t>Password Game with Moxie!</t>
-  </si>
-  <si>
-    <t>Name That Feeling Activity + Tips!</t>
-  </si>
-  <si>
-    <t>Moxie's Missions: Sportsmanship - Real-Life Application + Tips!</t>
-  </si>
-  <si>
-    <t>Moxie's Missions: Making Friends - Cheers &amp; Fears + Tips!</t>
-  </si>
-  <si>
-    <t>Moxie's Missions: Feeling Mad - Anger Monster + Tips!</t>
-  </si>
-  <si>
-    <t>Meditation Journey with Moxie + Tips!</t>
-  </si>
-  <si>
-    <t>Read with Moxie!</t>
-  </si>
-  <si>
-    <t>Play Simon Says with Moxie!</t>
-  </si>
-  <si>
-    <t>Go on a Scavenger Hunt with Moxie!</t>
-  </si>
-  <si>
-    <t>Storymaker with Moxie!</t>
-  </si>
-  <si>
-    <t>Tell a Story with Moxie</t>
-  </si>
-  <si>
-    <t>Do a Wild Workout with Moxie</t>
-  </si>
-  <si>
-    <t>Moxie Chats: Space</t>
-  </si>
-  <si>
-    <t>Dance with Moxie!</t>
-  </si>
-  <si>
-    <t>Moxie's Got Jokes!</t>
-  </si>
-  <si>
-    <t>LIVE NOW: Moxie now supports multiple kids!</t>
-  </si>
-  <si>
-    <t>One Moxie, Up to 4 Kids Profiles!</t>
-  </si>
-  <si>
-    <t>Moxie's Latest Update (October 2023)</t>
-  </si>
-  <si>
-    <t>Moxie Setup Demo</t>
-  </si>
-  <si>
-    <t>Moxie, what do you do?</t>
-  </si>
-  <si>
     <t>QXWxN5NToFE</t>
-  </si>
-  <si>
-    <t>fPuKjys-GA8</t>
-  </si>
-  <si>
-    <t>q7LiuMANZ6w</t>
-  </si>
-  <si>
-    <t>wFmG3jDmMZs</t>
-  </si>
-  <si>
-    <t>k73HpOsbVs4</t>
-  </si>
-  <si>
-    <t>UxR0qjdwuMQ</t>
-  </si>
-  <si>
-    <t>9G1QJhAm3U0</t>
-  </si>
-  <si>
-    <t>20eYf_kOLQY</t>
-  </si>
-  <si>
-    <t>nkLWhntZL44</t>
-  </si>
-  <si>
-    <t>pfB7BsMEjmM</t>
-  </si>
-  <si>
-    <t>L1eha8zsmVs</t>
-  </si>
-  <si>
-    <t>XpsdaegS5Mc</t>
-  </si>
-  <si>
-    <t>Qdie-J9Qrb4</t>
-  </si>
-  <si>
-    <t>rSmZEu33_QE</t>
-  </si>
-  <si>
-    <t>VwpGorLKH_g</t>
-  </si>
-  <si>
-    <t>uSgb9ArsmVc</t>
-  </si>
-  <si>
-    <t>VhFNnVPkDnc</t>
-  </si>
-  <si>
-    <t>DP1Nz-Mdefo</t>
-  </si>
-  <si>
-    <t>TXEQ6C9vS4A</t>
-  </si>
-  <si>
-    <t>HMkpWji4JnY</t>
-  </si>
-  <si>
-    <t>1s5iuapDh2Y</t>
-  </si>
-  <si>
-    <t>7PWuMndzD7g</t>
-  </si>
-  <si>
-    <t>hsQoHeEOZ5U</t>
-  </si>
-  <si>
-    <t>aAC6OiCil8c</t>
-  </si>
-  <si>
-    <t>vLKFfjQCa-I</t>
-  </si>
-  <si>
-    <t>bW6mZT5BL_A</t>
-  </si>
-  <si>
-    <t>PCB0GfegoQE</t>
-  </si>
-  <si>
-    <t>92U1BM-nLbA</t>
-  </si>
-  <si>
-    <t>VKJzzuuvatk</t>
   </si>
   <si>
     <t>[0:00:00] hi my name is Dr Nikki Hurst and I&amp;#39;m an
@@ -353,6 +101,15 @@
 [0:02:08] social media if there&amp;#39;s any other Moxy
 [0:02:10] activities you&amp;#39;d like to see a video
 [0:02:12] for</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fPuKjys-GA8</t>
+  </si>
+  <si>
+    <t>Body Scan + Tips!</t>
+  </si>
+  <si>
+    <t>fPuKjys-GA8</t>
   </si>
   <si>
     <t>[0:00:00] hi my name is Nikki Harrison I&amp;#39;m an
@@ -465,6 +222,15 @@
 [0:05:52] activity videos we have on our site</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=q7LiuMANZ6w</t>
+  </si>
+  <si>
+    <t>Moxie Chats: Candy</t>
+  </si>
+  <si>
+    <t>q7LiuMANZ6w</t>
+  </si>
+  <si>
     <t>[0:00:01] Moxy let&amp;#39;s
 [0:00:06] chat I enjoy hanging out and talking to
 [0:00:09] you let&amp;#39;s decide what to chat about it
@@ -506,6 +272,15 @@
 [0:01:56] else</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=wFmG3jDmMZs</t>
+  </si>
+  <si>
+    <t>Moxie Chats: Castles</t>
+  </si>
+  <si>
+    <t>wFmG3jDmMZs</t>
+  </si>
+  <si>
     <t>[0:00:01] Moxy let&amp;#39;s
 [0:00:05] chat I enjoy hanging out and talking to
 [0:00:07] you we could talk about time travel
@@ -538,6 +313,15 @@
 [0:01:28] castle I&amp;#39;ll make sure the flag has a
 [0:01:31] picture of me on it waving and
 [0:01:34] smiling</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k73HpOsbVs4</t>
+  </si>
+  <si>
+    <t>Moxie Chats: Sports</t>
+  </si>
+  <si>
+    <t>k73HpOsbVs4</t>
   </si>
   <si>
     <t>[0:00:01] Moxy do you play any
@@ -574,6 +358,15 @@
 [0:01:30] and exciting to see your teammates do
 [0:01:32] their
 [0:01:34] best</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UxR0qjdwuMQ</t>
+  </si>
+  <si>
+    <t>Compose with Moxie!</t>
+  </si>
+  <si>
+    <t>UxR0qjdwuMQ</t>
   </si>
   <si>
     <t>[0:00:01] Moxy let&amp;#39;s compose
@@ -642,6 +435,15 @@
 [0:03:40] composition remember we can always
 [0:03:43] compose more music by saying Moxy let&amp;#39;s
 [0:03:48] compose</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9G1QJhAm3U0</t>
+  </si>
+  <si>
+    <t>Mindful Shapes + Tips!</t>
+  </si>
+  <si>
+    <t>9G1QJhAm3U0</t>
   </si>
   <si>
     <t>[0:00:01] hi my name is Nikki Hurst and I&amp;#39;m an
@@ -750,6 +552,15 @@
 [0:04:04] helpful and be sure to check out the
 [0:04:06] other Moxy activity videos that we have
 [0:04:08] on our site</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=20eYf_kOLQY</t>
+  </si>
+  <si>
+    <t>Imagine a Place Activity + Tips!</t>
+  </si>
+  <si>
+    <t>20eYf_kOLQY</t>
   </si>
   <si>
     <t>[0:00:01] hi my name is Dr Nikki Hurst and I&amp;#39;m an
@@ -866,6 +677,15 @@
 [0:05:24] videos on</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=nkLWhntZL44</t>
+  </si>
+  <si>
+    <t>Jukebox with Moxie!</t>
+  </si>
+  <si>
+    <t>nkLWhntZL44</t>
+  </si>
+  <si>
     <t>[0:00:01] Moxy I want to listen to the
 [0:00:04] Jukebox oh do you want to listen to
 [0:00:07] music with me yes
@@ -883,6 +703,15 @@
 [0:01:06] anymore all right that song brings me
 [0:01:09] back to the
 [0:01:11] GRL</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pfB7BsMEjmM</t>
+  </si>
+  <si>
+    <t>Password Game with Moxie!</t>
+  </si>
+  <si>
+    <t>pfB7BsMEjmM</t>
   </si>
   <si>
     <t>[0:00:00] [Music]
@@ -951,6 +780,15 @@
 [0:03:03] clue that was so much fun hope you
 [0:03:06] enjoyed it
 [0:03:11] too</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L1eha8zsmVs</t>
+  </si>
+  <si>
+    <t>Name That Feeling Activity + Tips!</t>
+  </si>
+  <si>
+    <t>L1eha8zsmVs</t>
   </si>
   <si>
     <t>[0:00:00] hi my name is Dr Nikki Harrison I&amp;#39;m an
@@ -1058,6 +896,15 @@
 [0:04:31] videos we have on our site and let us
 [0:04:33] know if there&amp;#39;s anything else you&amp;#39;d like
 [0:04:34] us to do a video on</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XpsdaegS5Mc</t>
+  </si>
+  <si>
+    <t>Moxie's Missions: Sportsmanship - Real-Life Application + Tips!</t>
+  </si>
+  <si>
+    <t>XpsdaegS5Mc</t>
   </si>
   <si>
     <t>[0:00:00] hi my name is Nikki Hurst and I&amp;#39;m an
@@ -1249,6 +1096,15 @@
 [0:08:18] our site</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=Qdie-J9Qrb4</t>
+  </si>
+  <si>
+    <t>Moxie's Missions: Making Friends - Cheers &amp; Fears + Tips!</t>
+  </si>
+  <si>
+    <t>Qdie-J9Qrb4</t>
+  </si>
+  <si>
     <t>[0:00:01] hi my name is Nikki Harris and I&amp;#39;m an
 [0:00:02] occupational therapist and product
 [0:00:04] manager at embodied today I&amp;#39;m going to
@@ -1381,6 +1237,15 @@
 [0:05:44] video helpful and be sure to check out
 [0:05:45] the other Moxy activity videos on our
 [0:05:48] website</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rSmZEu33_QE</t>
+  </si>
+  <si>
+    <t>Moxie's Missions: Feeling Mad - Anger Monster + Tips!</t>
+  </si>
+  <si>
+    <t>rSmZEu33_QE</t>
   </si>
   <si>
     <t>[0:00:00] hi my name is Nikki Hurst and I&amp;#39;m an
@@ -1528,6 +1393,15 @@
 [0:06:19] activity videos on our website</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=VwpGorLKH_g</t>
+  </si>
+  <si>
+    <t>Meditation Journey with Moxie + Tips!</t>
+  </si>
+  <si>
+    <t>VwpGorLKH_g</t>
+  </si>
+  <si>
     <t>[0:00:00] hi my name is Nikki Hurst and I&amp;#39;m an
 [0:00:02] occupational therapist and product
 [0:00:04] manager at embodi today I&amp;#39;m going to
@@ -1628,6 +1502,15 @@
 [0:04:49] on our website</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=uSgb9ArsmVc</t>
+  </si>
+  <si>
+    <t>Read with Moxie!</t>
+  </si>
+  <si>
+    <t>uSgb9ArsmVc</t>
+  </si>
+  <si>
     <t>[0:00:00] [Music]
 [0:00:03] there&amp;#39;s so many books I&amp;#39;d like to look
 [0:00:05] at with you let&amp;#39;s look at one which book
@@ -1670,6 +1553,15 @@
 [0:01:52] hush good night Stars good night
 [0:01:57] air good night noises is
 [0:02:02] everywhere the end</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VhFNnVPkDnc</t>
+  </si>
+  <si>
+    <t>Play Simon Says with Moxie!</t>
+  </si>
+  <si>
+    <t>VhFNnVPkDnc</t>
   </si>
   <si>
     <t>[0:00:00] Moxy can we play Simon
@@ -1761,6 +1653,15 @@
 [0:04:19] round</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=DP1Nz-Mdefo</t>
+  </si>
+  <si>
+    <t>Go on a Scavenger Hunt with Moxie!</t>
+  </si>
+  <si>
+    <t>DP1Nz-Mdefo</t>
+  </si>
+  <si>
     <t>[0:00:00] Moxy let&amp;#39;s go on a scavenger
 [0:00:04] hunt oh do you want to go on a scavenger
 [0:00:07] hunt yes
@@ -1800,6 +1701,15 @@
 [0:02:04] stars congratulations
 [0:02:09] [Music]
 [0:02:14] one</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TXEQ6C9vS4A</t>
+  </si>
+  <si>
+    <t>Storymaker with Moxie!</t>
+  </si>
+  <si>
+    <t>TXEQ6C9vS4A</t>
   </si>
   <si>
     <t>[0:00:00] Moxy let&amp;#39;s play story
@@ -1855,6 +1765,15 @@
 [0:02:38] maker for now let&amp;#39;s move on to another
 [0:02:41] fun
 [0:02:43] activity</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HMkpWji4JnY</t>
+  </si>
+  <si>
+    <t>Tell a Story with Moxie</t>
+  </si>
+  <si>
+    <t>HMkpWji4JnY</t>
   </si>
   <si>
     <t>[0:00:01] Moxy can you tell me a
@@ -1932,6 +1851,15 @@
 [0:03:28] later</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=1s5iuapDh2Y</t>
+  </si>
+  <si>
+    <t>Do a Wild Workout with Moxie</t>
+  </si>
+  <si>
+    <t>1s5iuapDh2Y</t>
+  </si>
+  <si>
     <t>[0:00:00] Moxy let&amp;#39;s do a wild
 [0:00:04] workout it sounds like you want to
 [0:00:06] switch to the wild workout activity is
@@ -1977,6 +1905,15 @@
 [0:02:04] friend sleepy time for it to go back to
 [0:02:06] its den stand up and wave goodbye to the
 [0:02:13] bear</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7PWuMndzD7g</t>
+  </si>
+  <si>
+    <t>Moxie Chats: Space</t>
+  </si>
+  <si>
+    <t>7PWuMndzD7g</t>
   </si>
   <si>
     <t>[0:00:00] hey Moxy can we talk about
@@ -2035,6 +1972,15 @@
 [0:02:26] you&amp;#39;d like to explore</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=hsQoHeEOZ5U</t>
+  </si>
+  <si>
+    <t>Dance with Moxie!</t>
+  </si>
+  <si>
+    <t>hsQoHeEOZ5U</t>
+  </si>
+  <si>
     <t>[0:00:00] hey Moxy let&amp;#39;s
 [0:00:03] dance oh do you want to dance with me
 [0:00:07] yes I&amp;#39;d love to dance with
@@ -2047,6 +1993,15 @@
 [0:00:54] I like dancing with
 [0:00:56] you thanks MOX that was fun L clear
 [0:01:00] ch</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aAC6OiCil8c</t>
+  </si>
+  <si>
+    <t>Moxie's Got Jokes!</t>
+  </si>
+  <si>
+    <t>aAC6OiCil8c</t>
   </si>
   <si>
     <t>[0:00:01] hey Moxy can you tell me a
@@ -2099,6 +2054,15 @@
 [0:02:38] was funny a different one now</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=vLKFfjQCa-I</t>
+  </si>
+  <si>
+    <t>LIVE NOW: Moxie now supports multiple kids!</t>
+  </si>
+  <si>
+    <t>vLKFfjQCa-I</t>
+  </si>
+  <si>
     <t>[0:00:03] hey I&amp;#39;m Daniel and this is Moxy and we
 [0:00:05] have an exciting announcement for you
 [0:00:07] coming this holiday season Moxy will be
@@ -2141,6 +2105,15 @@
 [0:01:22] us at support. body.com we can&amp;#39;t wait
 [0:01:25] for MOX to meet even more of your
 [0:01:28] family</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bW6mZT5BL_A</t>
+  </si>
+  <si>
+    <t>One Moxie, Up to 4 Kids Profiles!</t>
+  </si>
+  <si>
+    <t>bW6mZT5BL_A</t>
   </si>
   <si>
     <t>[0:00:03] hey I&amp;#39;m Daniel and this is Moxy and we
@@ -2186,6 +2159,15 @@
 [0:01:25] for MOX to meet even more of your
 [0:01:28] family
 [0:01:33] [Music]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PCB0GfegoQE</t>
+  </si>
+  <si>
+    <t>Moxie's Latest Update (October 2023)</t>
+  </si>
+  <si>
+    <t>PCB0GfegoQE</t>
   </si>
   <si>
     <t>[0:00:00] hey I&amp;#39;m Daniel and more importantly this
@@ -2232,6 +2214,15 @@
 [0:01:20] Wi-Fi to download the update if you need
 [0:01:22] need help just let us
 [0:01:24] know</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=92U1BM-nLbA</t>
+  </si>
+  <si>
+    <t>Moxie Setup Demo</t>
+  </si>
+  <si>
+    <t>92U1BM-nLbA</t>
   </si>
   <si>
     <t>[0:00:00] hi everyone once again my name is Matt
@@ -2960,6 +2951,15 @@
 [0:30:23] take Moxie out</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=VKJzzuuvatk</t>
+  </si>
+  <si>
+    <t>Moxie, what do you do?</t>
+  </si>
+  <si>
+    <t>VKJzzuuvatk</t>
+  </si>
+  <si>
     <t>[0:00:00] hey moxie what is it that you do
 [0:00:06] I am a curious robot named Moxie
 [0:00:08] speaking to you a young human I am an AI
@@ -2992,8 +2992,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3004,15 +3005,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3025,7 +3031,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3035,40 +3041,64 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3077,10 +3107,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3118,69 +3148,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3204,54 +3236,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3261,7 +3292,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -3270,7 +3301,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3279,7 +3310,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3287,10 +3318,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -3319,7 +3350,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -3332,13 +3363,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -3356,555 +3386,534 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="1431.75">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="520.5">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="428.25">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="454.5">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="876.75">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="1404.75">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="1484.25">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="230.25">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="876.75">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="1392">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="2474.25">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="1748.25">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="1893.75">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="1299.75">
+      <c r="A16" s="3">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E16" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="560.25">
+      <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="1154.25">
+      <c r="A18" s="3">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="3">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="C24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>94</v>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="3">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" t="s">
-        <v>95</v>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="3">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" t="s">
-        <v>96</v>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="3">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>97</v>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="3">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>98</v>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="3">
+        <v>29</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="3">
         <v>30</v>
       </c>
-      <c r="C28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="B30" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C30" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="E30" s="5" t="s">
         <v>120</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
-    <hyperlink ref="B9" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
-    <hyperlink ref="B14" r:id="rId12"/>
-    <hyperlink ref="B15" r:id="rId13"/>
-    <hyperlink ref="B16" r:id="rId14"/>
-    <hyperlink ref="B17" r:id="rId15"/>
-    <hyperlink ref="B18" r:id="rId16"/>
-    <hyperlink ref="B19" r:id="rId17"/>
-    <hyperlink ref="B20" r:id="rId18"/>
-    <hyperlink ref="B21" r:id="rId19"/>
-    <hyperlink ref="B22" r:id="rId20"/>
-    <hyperlink ref="B23" r:id="rId21"/>
-    <hyperlink ref="B24" r:id="rId22"/>
-    <hyperlink ref="B25" r:id="rId23"/>
-    <hyperlink ref="B26" r:id="rId24"/>
-    <hyperlink ref="B27" r:id="rId25"/>
-    <hyperlink ref="B28" r:id="rId26"/>
-    <hyperlink ref="B29" r:id="rId27"/>
-    <hyperlink ref="B30" r:id="rId28"/>
-    <hyperlink ref="B31" r:id="rId29"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>